--- a/BackTest/2020-01-23 BackTest REP.xlsx
+++ b/BackTest/2020-01-23 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M210"/>
+  <dimension ref="A1:N168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,34 +427,39 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16470</v>
+        <v>16000</v>
       </c>
       <c r="C2" t="n">
-        <v>16470</v>
+        <v>15980</v>
       </c>
       <c r="D2" t="n">
-        <v>16470</v>
+        <v>16000</v>
       </c>
       <c r="E2" t="n">
-        <v>16470</v>
+        <v>15980</v>
       </c>
       <c r="F2" t="n">
-        <v>53</v>
+        <v>79.0891</v>
       </c>
       <c r="G2" t="n">
-        <v>564.2036893656721</v>
+        <v>-586.9686106343279</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -462,34 +467,35 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16360</v>
+        <v>15970</v>
       </c>
       <c r="C3" t="n">
-        <v>16360</v>
+        <v>15960</v>
       </c>
       <c r="D3" t="n">
-        <v>16360</v>
+        <v>15970</v>
       </c>
       <c r="E3" t="n">
-        <v>16360</v>
+        <v>15950</v>
       </c>
       <c r="F3" t="n">
-        <v>286.7953</v>
+        <v>19.2421</v>
       </c>
       <c r="G3" t="n">
-        <v>277.4083893656721</v>
+        <v>-606.2107106343279</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16360</v>
+        <v>15950</v>
       </c>
       <c r="C4" t="n">
-        <v>16350</v>
+        <v>15950</v>
       </c>
       <c r="D4" t="n">
-        <v>16360</v>
+        <v>15950</v>
       </c>
       <c r="E4" t="n">
-        <v>16350</v>
+        <v>15950</v>
       </c>
       <c r="F4" t="n">
-        <v>82.8197</v>
+        <v>48.385</v>
       </c>
       <c r="G4" t="n">
-        <v>194.5886893656721</v>
+        <v>-654.5957106343279</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16350</v>
+        <v>15950</v>
       </c>
       <c r="C5" t="n">
-        <v>16350</v>
+        <v>15950</v>
       </c>
       <c r="D5" t="n">
-        <v>16350</v>
+        <v>15950</v>
       </c>
       <c r="E5" t="n">
-        <v>16350</v>
+        <v>15950</v>
       </c>
       <c r="F5" t="n">
-        <v>1.9</v>
+        <v>9.202999999999999</v>
       </c>
       <c r="G5" t="n">
-        <v>194.5886893656721</v>
+        <v>-654.5957106343279</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16300</v>
+        <v>15980</v>
       </c>
       <c r="C6" t="n">
-        <v>16350</v>
+        <v>15980</v>
       </c>
       <c r="D6" t="n">
-        <v>16350</v>
+        <v>15980</v>
       </c>
       <c r="E6" t="n">
-        <v>16220</v>
+        <v>15980</v>
       </c>
       <c r="F6" t="n">
-        <v>121.1366070336391</v>
+        <v>30</v>
       </c>
       <c r="G6" t="n">
-        <v>194.5886893656721</v>
+        <v>-624.5957106343279</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,28 +611,29 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16200</v>
+        <v>15950</v>
       </c>
       <c r="C7" t="n">
-        <v>16200</v>
+        <v>15950</v>
       </c>
       <c r="D7" t="n">
-        <v>16200</v>
+        <v>15950</v>
       </c>
       <c r="E7" t="n">
-        <v>16200</v>
+        <v>15950</v>
       </c>
       <c r="F7" t="n">
-        <v>46.9437</v>
+        <v>5.5127</v>
       </c>
       <c r="G7" t="n">
-        <v>147.644989365672</v>
+        <v>-630.1084106343279</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,28 +647,29 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16300</v>
+        <v>16010</v>
       </c>
       <c r="C8" t="n">
-        <v>16300</v>
+        <v>16010</v>
       </c>
       <c r="D8" t="n">
-        <v>16300</v>
+        <v>16010</v>
       </c>
       <c r="E8" t="n">
-        <v>16300</v>
+        <v>16010</v>
       </c>
       <c r="F8" t="n">
-        <v>3.63</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>151.274989365672</v>
+        <v>-530.1084106343279</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,28 +683,29 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16310</v>
+        <v>15960</v>
       </c>
       <c r="C9" t="n">
-        <v>16300</v>
+        <v>15960</v>
       </c>
       <c r="D9" t="n">
-        <v>16310</v>
+        <v>15960</v>
       </c>
       <c r="E9" t="n">
-        <v>16300</v>
+        <v>15960</v>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>3.53</v>
       </c>
       <c r="G9" t="n">
-        <v>151.274989365672</v>
+        <v>-533.6384106343279</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,28 +719,29 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16300</v>
+        <v>15960</v>
       </c>
       <c r="C10" t="n">
-        <v>16300</v>
+        <v>15960</v>
       </c>
       <c r="D10" t="n">
-        <v>16300</v>
+        <v>15960</v>
       </c>
       <c r="E10" t="n">
-        <v>16300</v>
+        <v>15960</v>
       </c>
       <c r="F10" t="n">
-        <v>6.9089</v>
+        <v>3.53</v>
       </c>
       <c r="G10" t="n">
-        <v>151.274989365672</v>
+        <v>-533.6384106343279</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,28 +755,29 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16250</v>
+        <v>15960</v>
       </c>
       <c r="C11" t="n">
-        <v>16250</v>
+        <v>15960</v>
       </c>
       <c r="D11" t="n">
-        <v>16250</v>
+        <v>15960</v>
       </c>
       <c r="E11" t="n">
-        <v>16250</v>
+        <v>15960</v>
       </c>
       <c r="F11" t="n">
-        <v>134.2564</v>
+        <v>1.9788</v>
       </c>
       <c r="G11" t="n">
-        <v>17.01858936567203</v>
+        <v>-533.6384106343279</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,28 +791,29 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16250</v>
+        <v>15950</v>
       </c>
       <c r="C12" t="n">
-        <v>16250</v>
+        <v>15950</v>
       </c>
       <c r="D12" t="n">
-        <v>16250</v>
+        <v>15950</v>
       </c>
       <c r="E12" t="n">
-        <v>16250</v>
+        <v>15950</v>
       </c>
       <c r="F12" t="n">
-        <v>115.2214</v>
+        <v>81.1092</v>
       </c>
       <c r="G12" t="n">
-        <v>17.01858936567203</v>
+        <v>-614.7476106343279</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16250</v>
+        <v>15960</v>
       </c>
       <c r="C13" t="n">
-        <v>16130</v>
+        <v>15950</v>
       </c>
       <c r="D13" t="n">
-        <v>16250</v>
+        <v>15960</v>
       </c>
       <c r="E13" t="n">
-        <v>16130</v>
+        <v>15950</v>
       </c>
       <c r="F13" t="n">
-        <v>80</v>
+        <v>3.1411</v>
       </c>
       <c r="G13" t="n">
-        <v>-62.98141063432797</v>
+        <v>-614.7476106343279</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16100</v>
+        <v>15950</v>
       </c>
       <c r="C14" t="n">
-        <v>16100</v>
+        <v>15950</v>
       </c>
       <c r="D14" t="n">
-        <v>16100</v>
+        <v>15950</v>
       </c>
       <c r="E14" t="n">
-        <v>16100</v>
+        <v>15950</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1</v>
+        <v>25.7356</v>
       </c>
       <c r="G14" t="n">
-        <v>-63.08141063432797</v>
+        <v>-614.7476106343279</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16050</v>
+        <v>15950</v>
       </c>
       <c r="C15" t="n">
-        <v>16050</v>
+        <v>15950</v>
       </c>
       <c r="D15" t="n">
-        <v>16050</v>
+        <v>15950</v>
       </c>
       <c r="E15" t="n">
-        <v>16050</v>
+        <v>15950</v>
       </c>
       <c r="F15" t="n">
-        <v>4.8154</v>
+        <v>3.703</v>
       </c>
       <c r="G15" t="n">
-        <v>-67.89681063432798</v>
+        <v>-614.7476106343279</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16010</v>
+        <v>15960</v>
       </c>
       <c r="C16" t="n">
-        <v>16000</v>
+        <v>15960</v>
       </c>
       <c r="D16" t="n">
-        <v>16010</v>
+        <v>15960</v>
       </c>
       <c r="E16" t="n">
-        <v>16000</v>
+        <v>15960</v>
       </c>
       <c r="F16" t="n">
-        <v>75.6673</v>
+        <v>19.9</v>
       </c>
       <c r="G16" t="n">
-        <v>-143.564110634328</v>
+        <v>-594.8476106343279</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16000</v>
+        <v>16010</v>
       </c>
       <c r="C17" t="n">
-        <v>16000</v>
+        <v>16010</v>
       </c>
       <c r="D17" t="n">
-        <v>16000</v>
+        <v>16010</v>
       </c>
       <c r="E17" t="n">
-        <v>16000</v>
+        <v>16010</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001</v>
+        <v>14.9532</v>
       </c>
       <c r="G17" t="n">
-        <v>-143.564110634328</v>
+        <v>-579.8944106343279</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,483 +1007,597 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16060</v>
+        <v>16010</v>
       </c>
       <c r="C18" t="n">
-        <v>16060</v>
+        <v>16010</v>
       </c>
       <c r="D18" t="n">
-        <v>16060</v>
+        <v>16010</v>
       </c>
       <c r="E18" t="n">
-        <v>16060</v>
+        <v>16010</v>
       </c>
       <c r="F18" t="n">
-        <v>2.3917</v>
+        <v>0.0001</v>
       </c>
       <c r="G18" t="n">
-        <v>-141.1724106343279</v>
+        <v>-579.8944106343279</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>16010</v>
+      </c>
+      <c r="K18" t="n">
+        <v>16010</v>
+      </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16110</v>
+        <v>15970</v>
       </c>
       <c r="C19" t="n">
-        <v>16110</v>
+        <v>15960</v>
       </c>
       <c r="D19" t="n">
-        <v>16110</v>
+        <v>15970</v>
       </c>
       <c r="E19" t="n">
-        <v>16110</v>
+        <v>15960</v>
       </c>
       <c r="F19" t="n">
-        <v>35.1301</v>
+        <v>8.9094</v>
       </c>
       <c r="G19" t="n">
-        <v>-106.0423106343279</v>
+        <v>-588.8038106343279</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>16010</v>
+      </c>
+      <c r="K19" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16110</v>
+        <v>15960</v>
       </c>
       <c r="C20" t="n">
-        <v>16110</v>
+        <v>15960</v>
       </c>
       <c r="D20" t="n">
-        <v>16110</v>
+        <v>15960</v>
       </c>
       <c r="E20" t="n">
-        <v>16110</v>
+        <v>15960</v>
       </c>
       <c r="F20" t="n">
-        <v>12.5178</v>
+        <v>4.5274</v>
       </c>
       <c r="G20" t="n">
-        <v>-106.0423106343279</v>
+        <v>-588.8038106343279</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>15960</v>
+      </c>
+      <c r="K20" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15990</v>
+        <v>15960</v>
       </c>
       <c r="C21" t="n">
-        <v>15980</v>
+        <v>15960</v>
       </c>
       <c r="D21" t="n">
-        <v>15990</v>
+        <v>15960</v>
       </c>
       <c r="E21" t="n">
-        <v>15980</v>
+        <v>15950</v>
       </c>
       <c r="F21" t="n">
-        <v>19.5</v>
+        <v>205.0276</v>
       </c>
       <c r="G21" t="n">
-        <v>-125.5423106343279</v>
+        <v>-588.8038106343279</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>15960</v>
+      </c>
+      <c r="K21" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16000</v>
+        <v>15960</v>
       </c>
       <c r="C22" t="n">
-        <v>16000</v>
+        <v>15960</v>
       </c>
       <c r="D22" t="n">
-        <v>16000</v>
+        <v>15960</v>
       </c>
       <c r="E22" t="n">
-        <v>16000</v>
+        <v>15960</v>
       </c>
       <c r="F22" t="n">
-        <v>12.139</v>
+        <v>28.1059</v>
       </c>
       <c r="G22" t="n">
-        <v>-113.403310634328</v>
+        <v>-588.8038106343279</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>15960</v>
+      </c>
+      <c r="K22" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="C23" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="D23" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="E23" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="F23" t="n">
-        <v>2.3185</v>
+        <v>20</v>
       </c>
       <c r="G23" t="n">
-        <v>-113.403310634328</v>
+        <v>-608.8038106343279</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>15960</v>
+      </c>
+      <c r="K23" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="C24" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="D24" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="E24" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="F24" t="n">
-        <v>1.4717</v>
+        <v>6.5</v>
       </c>
       <c r="G24" t="n">
-        <v>-113.403310634328</v>
+        <v>-608.8038106343279</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K24" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16020</v>
+        <v>15950</v>
       </c>
       <c r="C25" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="D25" t="n">
-        <v>16020</v>
+        <v>15950</v>
       </c>
       <c r="E25" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="F25" t="n">
-        <v>6.9089</v>
+        <v>50.1398</v>
       </c>
       <c r="G25" t="n">
-        <v>-106.4944106343279</v>
+        <v>-608.8038106343279</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K25" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="C26" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="D26" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="E26" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="F26" t="n">
-        <v>10</v>
+        <v>66.2248</v>
       </c>
       <c r="G26" t="n">
-        <v>-106.4944106343279</v>
+        <v>-608.8038106343279</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K26" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="C27" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="D27" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="E27" t="n">
-        <v>16010</v>
+        <v>15950</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>264.8398</v>
       </c>
       <c r="G27" t="n">
-        <v>-106.4944106343279</v>
+        <v>-608.8038106343279</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K27" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16020</v>
+        <v>15950</v>
       </c>
       <c r="C28" t="n">
-        <v>16020</v>
+        <v>15950</v>
       </c>
       <c r="D28" t="n">
-        <v>16020</v>
+        <v>15950</v>
       </c>
       <c r="E28" t="n">
-        <v>16020</v>
+        <v>15950</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>25.4397</v>
       </c>
       <c r="G28" t="n">
-        <v>-96.49441063432795</v>
+        <v>-608.8038106343279</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K28" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="C29" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="D29" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="E29" t="n">
-        <v>16000</v>
+        <v>15950</v>
       </c>
       <c r="F29" t="n">
-        <v>26.9116</v>
+        <v>24.2432</v>
       </c>
       <c r="G29" t="n">
-        <v>-123.4060106343279</v>
+        <v>-608.8038106343279</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K29" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16080</v>
+        <v>15980</v>
       </c>
       <c r="C30" t="n">
-        <v>16080</v>
+        <v>16010</v>
       </c>
       <c r="D30" t="n">
-        <v>16080</v>
+        <v>16010</v>
       </c>
       <c r="E30" t="n">
-        <v>16080</v>
+        <v>15980</v>
       </c>
       <c r="F30" t="n">
-        <v>63</v>
+        <v>154.8585</v>
       </c>
       <c r="G30" t="n">
-        <v>-60.40601063432794</v>
+        <v>-453.9453106343279</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K30" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16000</v>
+        <v>16020</v>
       </c>
       <c r="C31" t="n">
-        <v>16000</v>
+        <v>16020</v>
       </c>
       <c r="D31" t="n">
-        <v>16000</v>
+        <v>16020</v>
       </c>
       <c r="E31" t="n">
-        <v>16000</v>
+        <v>16020</v>
       </c>
       <c r="F31" t="n">
-        <v>52.0157</v>
+        <v>106.5453</v>
       </c>
       <c r="G31" t="n">
-        <v>-112.421710634328</v>
+        <v>-347.4000106343279</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1472,33 +1606,40 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16080</v>
+        <v>16020</v>
       </c>
       <c r="C32" t="n">
-        <v>16090</v>
+        <v>16020</v>
       </c>
       <c r="D32" t="n">
-        <v>16090</v>
+        <v>16020</v>
       </c>
       <c r="E32" t="n">
-        <v>16080</v>
+        <v>16020</v>
       </c>
       <c r="F32" t="n">
-        <v>56.0797</v>
+        <v>237.3985</v>
       </c>
       <c r="G32" t="n">
-        <v>-56.34201063432795</v>
+        <v>-347.4000106343279</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1507,33 +1648,40 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16090</v>
+        <v>16080</v>
       </c>
       <c r="C33" t="n">
-        <v>16090</v>
+        <v>16080</v>
       </c>
       <c r="D33" t="n">
-        <v>16090</v>
+        <v>16080</v>
       </c>
       <c r="E33" t="n">
-        <v>16090</v>
+        <v>16080</v>
       </c>
       <c r="F33" t="n">
-        <v>25.9548</v>
+        <v>67.7496</v>
       </c>
       <c r="G33" t="n">
-        <v>-56.34201063432795</v>
+        <v>-279.6504106343279</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1542,33 +1690,40 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16110</v>
+        <v>16030</v>
       </c>
       <c r="C34" t="n">
-        <v>16110</v>
+        <v>16030</v>
       </c>
       <c r="D34" t="n">
-        <v>16110</v>
+        <v>16030</v>
       </c>
       <c r="E34" t="n">
-        <v>16110</v>
+        <v>16030</v>
       </c>
       <c r="F34" t="n">
-        <v>50</v>
+        <v>52.3394</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.342010634327949</v>
+        <v>-331.9898106343279</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1577,33 +1732,40 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16110</v>
+        <v>16040</v>
       </c>
       <c r="C35" t="n">
-        <v>16030</v>
+        <v>16040</v>
       </c>
       <c r="D35" t="n">
-        <v>16110</v>
+        <v>16040</v>
       </c>
       <c r="E35" t="n">
-        <v>16030</v>
+        <v>16040</v>
       </c>
       <c r="F35" t="n">
-        <v>158.2108</v>
+        <v>2.1402</v>
       </c>
       <c r="G35" t="n">
-        <v>-164.552810634328</v>
+        <v>-329.8496106343279</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1612,33 +1774,40 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16100</v>
+        <v>16120</v>
       </c>
       <c r="C36" t="n">
-        <v>16100</v>
+        <v>16120</v>
       </c>
       <c r="D36" t="n">
-        <v>16100</v>
+        <v>16120</v>
       </c>
       <c r="E36" t="n">
-        <v>16100</v>
+        <v>16120</v>
       </c>
       <c r="F36" t="n">
-        <v>11.9402</v>
+        <v>15.5344</v>
       </c>
       <c r="G36" t="n">
-        <v>-152.612610634328</v>
+        <v>-314.3152106343279</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1647,33 +1816,40 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16030</v>
+        <v>16100</v>
       </c>
       <c r="C37" t="n">
-        <v>16010</v>
+        <v>16100</v>
       </c>
       <c r="D37" t="n">
-        <v>16030</v>
+        <v>16100</v>
       </c>
       <c r="E37" t="n">
-        <v>16010</v>
+        <v>16100</v>
       </c>
       <c r="F37" t="n">
-        <v>31.1181</v>
+        <v>42.0999</v>
       </c>
       <c r="G37" t="n">
-        <v>-183.7307106343279</v>
+        <v>-356.4151106343279</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1682,33 +1858,40 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16020</v>
+        <v>16180</v>
       </c>
       <c r="C38" t="n">
-        <v>15970</v>
+        <v>16180</v>
       </c>
       <c r="D38" t="n">
-        <v>16020</v>
+        <v>16180</v>
       </c>
       <c r="E38" t="n">
-        <v>15970</v>
+        <v>16180</v>
       </c>
       <c r="F38" t="n">
-        <v>326.1563</v>
+        <v>0.08</v>
       </c>
       <c r="G38" t="n">
-        <v>-509.8870106343279</v>
+        <v>-356.3351106343279</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1717,33 +1900,40 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15990</v>
+        <v>16180</v>
       </c>
       <c r="C39" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="D39" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="E39" t="n">
-        <v>15990</v>
+        <v>16180</v>
       </c>
       <c r="F39" t="n">
-        <v>1.886</v>
+        <v>76.1361</v>
       </c>
       <c r="G39" t="n">
-        <v>-508.0010106343279</v>
+        <v>-280.1990106343279</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1752,33 +1942,40 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="C40" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="D40" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="E40" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="F40" t="n">
-        <v>15.59</v>
+        <v>66.268</v>
       </c>
       <c r="G40" t="n">
-        <v>-508.0010106343279</v>
+        <v>-280.1990106343279</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1787,33 +1984,40 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="C41" t="n">
-        <v>16080</v>
+        <v>16220</v>
       </c>
       <c r="D41" t="n">
-        <v>16080</v>
+        <v>16220</v>
       </c>
       <c r="E41" t="n">
-        <v>15990</v>
+        <v>16220</v>
       </c>
       <c r="F41" t="n">
-        <v>0.08</v>
+        <v>30</v>
       </c>
       <c r="G41" t="n">
-        <v>-507.9210106343279</v>
+        <v>-280.1990106343279</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1822,33 +2026,40 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16060</v>
+        <v>16220</v>
       </c>
       <c r="C42" t="n">
-        <v>16060</v>
+        <v>16220</v>
       </c>
       <c r="D42" t="n">
-        <v>16060</v>
+        <v>16220</v>
       </c>
       <c r="E42" t="n">
-        <v>16060</v>
+        <v>16220</v>
       </c>
       <c r="F42" t="n">
-        <v>4.38</v>
+        <v>171.0485</v>
       </c>
       <c r="G42" t="n">
-        <v>-512.3010106343279</v>
+        <v>-280.1990106343279</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1857,33 +2068,40 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16090</v>
+        <v>16140</v>
       </c>
       <c r="C43" t="n">
-        <v>16090</v>
+        <v>16140</v>
       </c>
       <c r="D43" t="n">
-        <v>16090</v>
+        <v>16140</v>
       </c>
       <c r="E43" t="n">
-        <v>16090</v>
+        <v>16140</v>
       </c>
       <c r="F43" t="n">
-        <v>4.4215</v>
+        <v>62.0137</v>
       </c>
       <c r="G43" t="n">
-        <v>-507.8795106343279</v>
+        <v>-342.2127106343279</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1892,33 +2110,40 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16000</v>
+        <v>16090</v>
       </c>
       <c r="C44" t="n">
-        <v>15980</v>
+        <v>16070</v>
       </c>
       <c r="D44" t="n">
-        <v>16000</v>
+        <v>16090</v>
       </c>
       <c r="E44" t="n">
-        <v>15980</v>
+        <v>16070</v>
       </c>
       <c r="F44" t="n">
-        <v>79.0891</v>
+        <v>115.4517</v>
       </c>
       <c r="G44" t="n">
-        <v>-586.9686106343279</v>
+        <v>-457.6644106343279</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1927,33 +2152,40 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15970</v>
+        <v>15990</v>
       </c>
       <c r="C45" t="n">
-        <v>15960</v>
+        <v>15980</v>
       </c>
       <c r="D45" t="n">
-        <v>15970</v>
+        <v>15990</v>
       </c>
       <c r="E45" t="n">
-        <v>15950</v>
+        <v>15980</v>
       </c>
       <c r="F45" t="n">
-        <v>19.2421</v>
+        <v>249.4554</v>
       </c>
       <c r="G45" t="n">
-        <v>-606.2107106343279</v>
+        <v>-707.1198106343279</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1962,33 +2194,40 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15950</v>
+        <v>16010</v>
       </c>
       <c r="C46" t="n">
-        <v>15950</v>
+        <v>16010</v>
       </c>
       <c r="D46" t="n">
-        <v>15950</v>
+        <v>16010</v>
       </c>
       <c r="E46" t="n">
-        <v>15950</v>
+        <v>16010</v>
       </c>
       <c r="F46" t="n">
-        <v>48.385</v>
+        <v>13</v>
       </c>
       <c r="G46" t="n">
-        <v>-654.5957106343279</v>
+        <v>-694.1198106343279</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1997,33 +2236,40 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="C47" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="D47" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="E47" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="F47" t="n">
-        <v>9.202999999999999</v>
+        <v>5.432</v>
       </c>
       <c r="G47" t="n">
-        <v>-654.5957106343279</v>
+        <v>-688.6878106343279</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2032,33 +2278,40 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15980</v>
+        <v>16060</v>
       </c>
       <c r="C48" t="n">
-        <v>15980</v>
+        <v>16030</v>
       </c>
       <c r="D48" t="n">
-        <v>15980</v>
+        <v>16060</v>
       </c>
       <c r="E48" t="n">
-        <v>15980</v>
+        <v>16030</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>2.74</v>
       </c>
       <c r="G48" t="n">
-        <v>-624.5957106343279</v>
+        <v>-691.4278106343279</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2067,33 +2320,40 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="C49" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="D49" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="E49" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="F49" t="n">
-        <v>5.5127</v>
+        <v>16.902</v>
       </c>
       <c r="G49" t="n">
-        <v>-630.1084106343279</v>
+        <v>-691.4278106343279</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2102,33 +2362,40 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="C50" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="D50" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="E50" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="F50" t="n">
-        <v>100</v>
+        <v>3.604</v>
       </c>
       <c r="G50" t="n">
-        <v>-530.1084106343279</v>
+        <v>-691.4278106343279</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2137,33 +2404,40 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="C51" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="D51" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="E51" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="F51" t="n">
-        <v>3.53</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>-533.6384106343279</v>
+        <v>-691.4278106343279</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2172,33 +2446,40 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15960</v>
+        <v>16040</v>
       </c>
       <c r="C52" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="D52" t="n">
-        <v>15960</v>
+        <v>16040</v>
       </c>
       <c r="E52" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="F52" t="n">
-        <v>3.53</v>
+        <v>48.5</v>
       </c>
       <c r="G52" t="n">
-        <v>-533.6384106343279</v>
+        <v>-691.4278106343279</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2207,33 +2488,40 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="C53" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="D53" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="E53" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="F53" t="n">
-        <v>1.9788</v>
+        <v>10.4026</v>
       </c>
       <c r="G53" t="n">
-        <v>-533.6384106343279</v>
+        <v>-681.0252106343279</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2242,33 +2530,40 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="C54" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="D54" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="E54" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="F54" t="n">
-        <v>81.1092</v>
+        <v>2.8281</v>
       </c>
       <c r="G54" t="n">
-        <v>-614.7476106343279</v>
+        <v>-681.0252106343279</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2277,33 +2572,40 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="C55" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="D55" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="E55" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="F55" t="n">
-        <v>3.1411</v>
+        <v>13.842</v>
       </c>
       <c r="G55" t="n">
-        <v>-614.7476106343279</v>
+        <v>-681.0252106343279</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2312,33 +2614,40 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="C56" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="D56" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="E56" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="F56" t="n">
-        <v>25.7356</v>
+        <v>2.4064</v>
       </c>
       <c r="G56" t="n">
-        <v>-614.7476106343279</v>
+        <v>-678.6188106343279</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2347,33 +2656,40 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="C57" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="D57" t="n">
-        <v>15950</v>
+        <v>16080</v>
       </c>
       <c r="E57" t="n">
-        <v>15950</v>
+        <v>16050</v>
       </c>
       <c r="F57" t="n">
-        <v>3.703</v>
+        <v>24.04648059701493</v>
       </c>
       <c r="G57" t="n">
-        <v>-614.7476106343279</v>
+        <v>-702.6652912313428</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2382,33 +2698,40 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15960</v>
+        <v>16060</v>
       </c>
       <c r="C58" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="D58" t="n">
-        <v>15960</v>
+        <v>16060</v>
       </c>
       <c r="E58" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="F58" t="n">
-        <v>19.9</v>
+        <v>28.519</v>
       </c>
       <c r="G58" t="n">
-        <v>-594.8476106343279</v>
+        <v>-702.6652912313428</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2417,33 +2740,40 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16010</v>
+        <v>16060</v>
       </c>
       <c r="C59" t="n">
-        <v>16010</v>
+        <v>16050</v>
       </c>
       <c r="D59" t="n">
-        <v>16010</v>
+        <v>16060</v>
       </c>
       <c r="E59" t="n">
-        <v>16010</v>
+        <v>16050</v>
       </c>
       <c r="F59" t="n">
-        <v>14.9532</v>
+        <v>17.266</v>
       </c>
       <c r="G59" t="n">
-        <v>-579.8944106343279</v>
+        <v>-702.6652912313428</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2452,33 +2782,40 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16010</v>
+        <v>16050</v>
       </c>
       <c r="C60" t="n">
-        <v>16010</v>
+        <v>16050</v>
       </c>
       <c r="D60" t="n">
-        <v>16010</v>
+        <v>16050</v>
       </c>
       <c r="E60" t="n">
-        <v>16010</v>
+        <v>16050</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0001</v>
+        <v>3.0555</v>
       </c>
       <c r="G60" t="n">
-        <v>-579.8944106343279</v>
+        <v>-702.6652912313428</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2487,33 +2824,40 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15970</v>
+        <v>16050</v>
       </c>
       <c r="C61" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="D61" t="n">
-        <v>15970</v>
+        <v>16050</v>
       </c>
       <c r="E61" t="n">
-        <v>15960</v>
+        <v>16050</v>
       </c>
       <c r="F61" t="n">
-        <v>8.9094</v>
+        <v>13.448</v>
       </c>
       <c r="G61" t="n">
-        <v>-588.8038106343279</v>
+        <v>-702.6652912313428</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2522,33 +2866,40 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="C62" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="D62" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="E62" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="F62" t="n">
-        <v>4.5274</v>
+        <v>6.562</v>
       </c>
       <c r="G62" t="n">
-        <v>-588.8038106343279</v>
+        <v>-709.2272912313429</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2557,33 +2908,40 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="C63" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="D63" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="E63" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="F63" t="n">
-        <v>205.0276</v>
+        <v>3.6339</v>
       </c>
       <c r="G63" t="n">
-        <v>-588.8038106343279</v>
+        <v>-709.2272912313429</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2592,33 +2950,40 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="C64" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="D64" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="E64" t="n">
-        <v>15960</v>
+        <v>16030</v>
       </c>
       <c r="F64" t="n">
-        <v>28.1059</v>
+        <v>7.264</v>
       </c>
       <c r="G64" t="n">
-        <v>-588.8038106343279</v>
+        <v>-709.2272912313429</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2627,33 +2992,40 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="C65" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="D65" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="E65" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="F65" t="n">
-        <v>20</v>
+        <v>0.1226509023024269</v>
       </c>
       <c r="G65" t="n">
-        <v>-608.8038106343279</v>
+        <v>-709.1046403290404</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2662,33 +3034,40 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="C66" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="D66" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="E66" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="F66" t="n">
-        <v>6.5</v>
+        <v>0.1675</v>
       </c>
       <c r="G66" t="n">
-        <v>-608.8038106343279</v>
+        <v>-709.2721403290404</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2697,33 +3076,40 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="C67" t="n">
-        <v>15950</v>
+        <v>16010</v>
       </c>
       <c r="D67" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="E67" t="n">
-        <v>15950</v>
+        <v>16010</v>
       </c>
       <c r="F67" t="n">
-        <v>50.1398</v>
+        <v>135.6234</v>
       </c>
       <c r="G67" t="n">
-        <v>-608.8038106343279</v>
+        <v>-844.8955403290404</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2732,33 +3118,40 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="C68" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="D68" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="E68" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="F68" t="n">
-        <v>66.2248</v>
+        <v>3</v>
       </c>
       <c r="G68" t="n">
-        <v>-608.8038106343279</v>
+        <v>-841.8955403290404</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2767,33 +3160,40 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="C69" t="n">
-        <v>15950</v>
+        <v>16110</v>
       </c>
       <c r="D69" t="n">
-        <v>15950</v>
+        <v>16110</v>
       </c>
       <c r="E69" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="F69" t="n">
-        <v>264.8398</v>
+        <v>149.6075490976976</v>
       </c>
       <c r="G69" t="n">
-        <v>-608.8038106343279</v>
+        <v>-692.2879912313427</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2802,33 +3202,40 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="C70" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="D70" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="E70" t="n">
-        <v>15950</v>
+        <v>16030</v>
       </c>
       <c r="F70" t="n">
-        <v>25.4397</v>
+        <v>74.7308</v>
       </c>
       <c r="G70" t="n">
-        <v>-608.8038106343279</v>
+        <v>-767.0187912313428</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2837,33 +3244,40 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="C71" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="D71" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="E71" t="n">
-        <v>15950</v>
+        <v>16070</v>
       </c>
       <c r="F71" t="n">
-        <v>24.2432</v>
+        <v>5.6673</v>
       </c>
       <c r="G71" t="n">
-        <v>-608.8038106343279</v>
+        <v>-761.3514912313428</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2872,18 +3286,25 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15980</v>
+        <v>16010</v>
       </c>
       <c r="C72" t="n">
         <v>16010</v>
@@ -2892,13 +3313,13 @@
         <v>16010</v>
       </c>
       <c r="E72" t="n">
-        <v>15980</v>
+        <v>16010</v>
       </c>
       <c r="F72" t="n">
-        <v>154.8585</v>
+        <v>121.4066</v>
       </c>
       <c r="G72" t="n">
-        <v>-453.9453106343279</v>
+        <v>-882.7580912313429</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2907,11 +3328,18 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2930,10 +3358,10 @@
         <v>16020</v>
       </c>
       <c r="F73" t="n">
-        <v>106.5453</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G73" t="n">
-        <v>-347.4000106343279</v>
+        <v>-873.6480912313428</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2942,11 +3370,18 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2965,10 +3400,10 @@
         <v>16020</v>
       </c>
       <c r="F74" t="n">
-        <v>237.3985</v>
+        <v>5.2352</v>
       </c>
       <c r="G74" t="n">
-        <v>-347.4000106343279</v>
+        <v>-873.6480912313428</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2977,33 +3412,40 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16080</v>
+        <v>16020</v>
       </c>
       <c r="C75" t="n">
-        <v>16080</v>
+        <v>16020</v>
       </c>
       <c r="D75" t="n">
-        <v>16080</v>
+        <v>16020</v>
       </c>
       <c r="E75" t="n">
-        <v>16080</v>
+        <v>16020</v>
       </c>
       <c r="F75" t="n">
-        <v>67.7496</v>
+        <v>4.55</v>
       </c>
       <c r="G75" t="n">
-        <v>-279.6504106343279</v>
+        <v>-873.6480912313428</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3012,33 +3454,40 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="C76" t="n">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="D76" t="n">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="E76" t="n">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="F76" t="n">
-        <v>52.3394</v>
+        <v>13.1854</v>
       </c>
       <c r="G76" t="n">
-        <v>-331.9898106343279</v>
+        <v>-873.6480912313428</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3047,33 +3496,40 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16040</v>
+        <v>16060</v>
       </c>
       <c r="C77" t="n">
-        <v>16040</v>
+        <v>16060</v>
       </c>
       <c r="D77" t="n">
-        <v>16040</v>
+        <v>16060</v>
       </c>
       <c r="E77" t="n">
-        <v>16040</v>
+        <v>16060</v>
       </c>
       <c r="F77" t="n">
-        <v>2.1402</v>
+        <v>3</v>
       </c>
       <c r="G77" t="n">
-        <v>-329.8496106343279</v>
+        <v>-870.6480912313428</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3082,33 +3538,40 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16120</v>
+        <v>16050</v>
       </c>
       <c r="C78" t="n">
-        <v>16120</v>
+        <v>16050</v>
       </c>
       <c r="D78" t="n">
-        <v>16120</v>
+        <v>16050</v>
       </c>
       <c r="E78" t="n">
-        <v>16120</v>
+        <v>16050</v>
       </c>
       <c r="F78" t="n">
-        <v>15.5344</v>
+        <v>66.7059</v>
       </c>
       <c r="G78" t="n">
-        <v>-314.3152106343279</v>
+        <v>-937.3539912313429</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3117,33 +3580,40 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16100</v>
+        <v>16080</v>
       </c>
       <c r="C79" t="n">
-        <v>16100</v>
+        <v>16050</v>
       </c>
       <c r="D79" t="n">
-        <v>16100</v>
+        <v>16140</v>
       </c>
       <c r="E79" t="n">
-        <v>16100</v>
+        <v>16050</v>
       </c>
       <c r="F79" t="n">
-        <v>42.0999</v>
+        <v>910.5780999999999</v>
       </c>
       <c r="G79" t="n">
-        <v>-356.4151106343279</v>
+        <v>-937.3539912313429</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3152,33 +3622,40 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16180</v>
+        <v>16170</v>
       </c>
       <c r="C80" t="n">
-        <v>16180</v>
+        <v>16210</v>
       </c>
       <c r="D80" t="n">
-        <v>16180</v>
+        <v>16210</v>
       </c>
       <c r="E80" t="n">
-        <v>16180</v>
+        <v>16170</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08</v>
+        <v>508.0259</v>
       </c>
       <c r="G80" t="n">
-        <v>-356.3351106343279</v>
+        <v>-429.3280912313429</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3187,33 +3664,40 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16180</v>
+        <v>16230</v>
       </c>
       <c r="C81" t="n">
-        <v>16220</v>
+        <v>16230</v>
       </c>
       <c r="D81" t="n">
-        <v>16220</v>
+        <v>16230</v>
       </c>
       <c r="E81" t="n">
-        <v>16180</v>
+        <v>16230</v>
       </c>
       <c r="F81" t="n">
-        <v>76.1361</v>
+        <v>1</v>
       </c>
       <c r="G81" t="n">
-        <v>-280.1990106343279</v>
+        <v>-428.3280912313429</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3222,33 +3706,40 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16220</v>
+        <v>16300</v>
       </c>
       <c r="C82" t="n">
-        <v>16220</v>
+        <v>16300</v>
       </c>
       <c r="D82" t="n">
-        <v>16220</v>
+        <v>16300</v>
       </c>
       <c r="E82" t="n">
-        <v>16220</v>
+        <v>16300</v>
       </c>
       <c r="F82" t="n">
-        <v>66.268</v>
+        <v>6.9747</v>
       </c>
       <c r="G82" t="n">
-        <v>-280.1990106343279</v>
+        <v>-421.3533912313429</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3257,33 +3748,40 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16220</v>
+        <v>16350</v>
       </c>
       <c r="C83" t="n">
-        <v>16220</v>
+        <v>16430</v>
       </c>
       <c r="D83" t="n">
-        <v>16220</v>
+        <v>16430</v>
       </c>
       <c r="E83" t="n">
-        <v>16220</v>
+        <v>16350</v>
       </c>
       <c r="F83" t="n">
-        <v>30</v>
+        <v>301.262</v>
       </c>
       <c r="G83" t="n">
-        <v>-280.1990106343279</v>
+        <v>-120.0913912313429</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3292,33 +3790,40 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16220</v>
+        <v>16440</v>
       </c>
       <c r="C84" t="n">
-        <v>16220</v>
+        <v>16450</v>
       </c>
       <c r="D84" t="n">
-        <v>16220</v>
+        <v>16450</v>
       </c>
       <c r="E84" t="n">
-        <v>16220</v>
+        <v>16440</v>
       </c>
       <c r="F84" t="n">
-        <v>171.0485</v>
+        <v>110.7311</v>
       </c>
       <c r="G84" t="n">
-        <v>-280.1990106343279</v>
+        <v>-9.360291231342927</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3327,33 +3832,40 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16140</v>
+        <v>16430</v>
       </c>
       <c r="C85" t="n">
-        <v>16140</v>
+        <v>16430</v>
       </c>
       <c r="D85" t="n">
-        <v>16140</v>
+        <v>16430</v>
       </c>
       <c r="E85" t="n">
-        <v>16140</v>
+        <v>16430</v>
       </c>
       <c r="F85" t="n">
-        <v>62.0137</v>
+        <v>14.21</v>
       </c>
       <c r="G85" t="n">
-        <v>-342.2127106343279</v>
+        <v>-23.57029123134293</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3362,33 +3874,40 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16090</v>
+        <v>16430</v>
       </c>
       <c r="C86" t="n">
-        <v>16070</v>
+        <v>16430</v>
       </c>
       <c r="D86" t="n">
-        <v>16090</v>
+        <v>16440</v>
       </c>
       <c r="E86" t="n">
-        <v>16070</v>
+        <v>16430</v>
       </c>
       <c r="F86" t="n">
-        <v>115.4517</v>
+        <v>204.2924</v>
       </c>
       <c r="G86" t="n">
-        <v>-457.6644106343279</v>
+        <v>-23.57029123134293</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3397,74 +3916,88 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15990</v>
+        <v>16440</v>
       </c>
       <c r="C87" t="n">
-        <v>15980</v>
+        <v>16440</v>
       </c>
       <c r="D87" t="n">
-        <v>15990</v>
+        <v>16440</v>
       </c>
       <c r="E87" t="n">
-        <v>15980</v>
+        <v>16440</v>
       </c>
       <c r="F87" t="n">
-        <v>249.4554</v>
+        <v>4.7554</v>
       </c>
       <c r="G87" t="n">
-        <v>-707.1198106343279</v>
+        <v>-18.81489123134293</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>16010</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M87" t="n">
-        <v>1</v>
-      </c>
+        <v>1.02185821361649</v>
+      </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16010</v>
+        <v>16440</v>
       </c>
       <c r="C88" t="n">
-        <v>16010</v>
+        <v>16480</v>
       </c>
       <c r="D88" t="n">
-        <v>16010</v>
+        <v>16480</v>
       </c>
       <c r="E88" t="n">
-        <v>16010</v>
+        <v>16440</v>
       </c>
       <c r="F88" t="n">
-        <v>13</v>
+        <v>295.868</v>
       </c>
       <c r="G88" t="n">
-        <v>-694.1198106343279</v>
+        <v>277.0531087686571</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3472,34 +4005,35 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16030</v>
+        <v>16470</v>
       </c>
       <c r="C89" t="n">
-        <v>16080</v>
+        <v>16480</v>
       </c>
       <c r="D89" t="n">
-        <v>16080</v>
+        <v>16480</v>
       </c>
       <c r="E89" t="n">
-        <v>16030</v>
+        <v>16470</v>
       </c>
       <c r="F89" t="n">
-        <v>5.432</v>
+        <v>66.6345</v>
       </c>
       <c r="G89" t="n">
-        <v>-688.6878106343279</v>
+        <v>277.0531087686571</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3507,34 +4041,35 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16060</v>
+        <v>16470</v>
       </c>
       <c r="C90" t="n">
-        <v>16030</v>
+        <v>16400</v>
       </c>
       <c r="D90" t="n">
-        <v>16060</v>
+        <v>16470</v>
       </c>
       <c r="E90" t="n">
-        <v>16030</v>
+        <v>16400</v>
       </c>
       <c r="F90" t="n">
-        <v>2.74</v>
+        <v>164.1233</v>
       </c>
       <c r="G90" t="n">
-        <v>-691.4278106343279</v>
+        <v>112.9298087686571</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3542,34 +4077,35 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="C91" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="D91" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="E91" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="F91" t="n">
-        <v>16.902</v>
+        <v>0.6375999999999999</v>
       </c>
       <c r="G91" t="n">
-        <v>-691.4278106343279</v>
+        <v>112.2922087686571</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3577,34 +4113,35 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="C92" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="D92" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="E92" t="n">
-        <v>16030</v>
+        <v>16380</v>
       </c>
       <c r="F92" t="n">
-        <v>3.604</v>
+        <v>59.7417</v>
       </c>
       <c r="G92" t="n">
-        <v>-691.4278106343279</v>
+        <v>112.2922087686571</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3612,34 +4149,35 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16030</v>
+        <v>16370</v>
       </c>
       <c r="C93" t="n">
-        <v>16030</v>
+        <v>16370</v>
       </c>
       <c r="D93" t="n">
-        <v>16030</v>
+        <v>16370</v>
       </c>
       <c r="E93" t="n">
-        <v>16030</v>
+        <v>16370</v>
       </c>
       <c r="F93" t="n">
-        <v>10</v>
+        <v>4.8729</v>
       </c>
       <c r="G93" t="n">
-        <v>-691.4278106343279</v>
+        <v>107.4193087686571</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
@@ -3647,34 +4185,35 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16040</v>
+        <v>16370</v>
       </c>
       <c r="C94" t="n">
-        <v>16030</v>
+        <v>16370</v>
       </c>
       <c r="D94" t="n">
-        <v>16040</v>
+        <v>16370</v>
       </c>
       <c r="E94" t="n">
-        <v>16030</v>
+        <v>16370</v>
       </c>
       <c r="F94" t="n">
-        <v>48.5</v>
+        <v>0.1144</v>
       </c>
       <c r="G94" t="n">
-        <v>-691.4278106343279</v>
+        <v>107.4193087686571</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -3682,34 +4221,35 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16050</v>
+        <v>16350</v>
       </c>
       <c r="C95" t="n">
-        <v>16050</v>
+        <v>16350</v>
       </c>
       <c r="D95" t="n">
-        <v>16050</v>
+        <v>16350</v>
       </c>
       <c r="E95" t="n">
-        <v>16050</v>
+        <v>16350</v>
       </c>
       <c r="F95" t="n">
-        <v>10.4026</v>
+        <v>7.1829</v>
       </c>
       <c r="G95" t="n">
-        <v>-681.0252106343279</v>
+        <v>100.2364087686571</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
@@ -3717,34 +4257,35 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16050</v>
+        <v>16350</v>
       </c>
       <c r="C96" t="n">
-        <v>16050</v>
+        <v>16440</v>
       </c>
       <c r="D96" t="n">
-        <v>16050</v>
+        <v>16440</v>
       </c>
       <c r="E96" t="n">
-        <v>16050</v>
+        <v>16310</v>
       </c>
       <c r="F96" t="n">
-        <v>2.8281</v>
+        <v>223.6150644768856</v>
       </c>
       <c r="G96" t="n">
-        <v>-681.0252106343279</v>
+        <v>323.8514732455426</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
@@ -3752,28 +4293,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16050</v>
+        <v>16330</v>
       </c>
       <c r="C97" t="n">
-        <v>16050</v>
+        <v>16320</v>
       </c>
       <c r="D97" t="n">
-        <v>16050</v>
+        <v>16330</v>
       </c>
       <c r="E97" t="n">
-        <v>16050</v>
+        <v>16320</v>
       </c>
       <c r="F97" t="n">
-        <v>13.842</v>
+        <v>101.8811</v>
       </c>
       <c r="G97" t="n">
-        <v>-681.0252106343279</v>
+        <v>221.9703732455426</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,34 +4329,35 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16080</v>
+        <v>16430</v>
       </c>
       <c r="C98" t="n">
-        <v>16080</v>
+        <v>16430</v>
       </c>
       <c r="D98" t="n">
-        <v>16080</v>
+        <v>16430</v>
       </c>
       <c r="E98" t="n">
-        <v>16080</v>
+        <v>16430</v>
       </c>
       <c r="F98" t="n">
-        <v>2.4064</v>
+        <v>78.8493</v>
       </c>
       <c r="G98" t="n">
-        <v>-678.6188106343279</v>
+        <v>300.8196732455426</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3822,34 +4365,35 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16080</v>
+        <v>16430</v>
       </c>
       <c r="C99" t="n">
-        <v>16050</v>
+        <v>16430</v>
       </c>
       <c r="D99" t="n">
-        <v>16080</v>
+        <v>16430</v>
       </c>
       <c r="E99" t="n">
-        <v>16050</v>
+        <v>16430</v>
       </c>
       <c r="F99" t="n">
-        <v>24.04648059701493</v>
+        <v>6.1506</v>
       </c>
       <c r="G99" t="n">
-        <v>-702.6652912313428</v>
+        <v>300.8196732455426</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -3857,34 +4401,35 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16060</v>
+        <v>16430</v>
       </c>
       <c r="C100" t="n">
-        <v>16050</v>
+        <v>16430</v>
       </c>
       <c r="D100" t="n">
-        <v>16060</v>
+        <v>16430</v>
       </c>
       <c r="E100" t="n">
-        <v>16050</v>
+        <v>16430</v>
       </c>
       <c r="F100" t="n">
-        <v>28.519</v>
+        <v>0.0001</v>
       </c>
       <c r="G100" t="n">
-        <v>-702.6652912313428</v>
+        <v>300.8196732455426</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3892,34 +4437,35 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16060</v>
+        <v>16300</v>
       </c>
       <c r="C101" t="n">
-        <v>16050</v>
+        <v>16300</v>
       </c>
       <c r="D101" t="n">
-        <v>16060</v>
+        <v>16300</v>
       </c>
       <c r="E101" t="n">
-        <v>16050</v>
+        <v>16300</v>
       </c>
       <c r="F101" t="n">
-        <v>17.266</v>
+        <v>0.6605</v>
       </c>
       <c r="G101" t="n">
-        <v>-702.6652912313428</v>
+        <v>300.1591732455426</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3927,34 +4473,35 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16050</v>
+        <v>16300</v>
       </c>
       <c r="C102" t="n">
-        <v>16050</v>
+        <v>16300</v>
       </c>
       <c r="D102" t="n">
-        <v>16050</v>
+        <v>16300</v>
       </c>
       <c r="E102" t="n">
-        <v>16050</v>
+        <v>16300</v>
       </c>
       <c r="F102" t="n">
-        <v>3.0555</v>
+        <v>2.5267</v>
       </c>
       <c r="G102" t="n">
-        <v>-702.6652912313428</v>
+        <v>300.1591732455426</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -3962,34 +4509,35 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>16050</v>
+        <v>16270</v>
       </c>
       <c r="C103" t="n">
-        <v>16050</v>
+        <v>16230</v>
       </c>
       <c r="D103" t="n">
-        <v>16050</v>
+        <v>16270</v>
       </c>
       <c r="E103" t="n">
-        <v>16050</v>
+        <v>16230</v>
       </c>
       <c r="F103" t="n">
-        <v>13.448</v>
+        <v>261.4038</v>
       </c>
       <c r="G103" t="n">
-        <v>-702.6652912313428</v>
+        <v>38.75537324554261</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -3997,34 +4545,35 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>16030</v>
+        <v>16220</v>
       </c>
       <c r="C104" t="n">
-        <v>16030</v>
+        <v>16210</v>
       </c>
       <c r="D104" t="n">
-        <v>16030</v>
+        <v>16220</v>
       </c>
       <c r="E104" t="n">
-        <v>16030</v>
+        <v>16210</v>
       </c>
       <c r="F104" t="n">
-        <v>6.562</v>
+        <v>7.5184</v>
       </c>
       <c r="G104" t="n">
-        <v>-709.2272912313429</v>
+        <v>31.23697324554261</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4032,28 +4581,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>16030</v>
+        <v>16130</v>
       </c>
       <c r="C105" t="n">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="D105" t="n">
-        <v>16030</v>
+        <v>16130</v>
       </c>
       <c r="E105" t="n">
-        <v>16030</v>
+        <v>16020</v>
       </c>
       <c r="F105" t="n">
-        <v>3.6339</v>
+        <v>957.1923</v>
       </c>
       <c r="G105" t="n">
-        <v>-709.2272912313429</v>
+        <v>-925.9553267544575</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4617,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="C106" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="D106" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="E106" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="F106" t="n">
-        <v>7.264</v>
+        <v>245.8709</v>
       </c>
       <c r="G106" t="n">
-        <v>-709.2272912313429</v>
+        <v>-1171.826226754457</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4653,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>16070</v>
+        <v>16010</v>
       </c>
       <c r="C107" t="n">
-        <v>16070</v>
+        <v>16000</v>
       </c>
       <c r="D107" t="n">
-        <v>16070</v>
+        <v>16010</v>
       </c>
       <c r="E107" t="n">
-        <v>16070</v>
+        <v>16000</v>
       </c>
       <c r="F107" t="n">
-        <v>0.1226509023024269</v>
+        <v>576.2717</v>
       </c>
       <c r="G107" t="n">
-        <v>-709.1046403290404</v>
+        <v>-1748.097926754457</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4689,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="C108" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="D108" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="E108" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="F108" t="n">
-        <v>0.1675</v>
+        <v>1.5</v>
       </c>
       <c r="G108" t="n">
-        <v>-709.2721403290404</v>
+        <v>-1748.097926754457</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4725,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="C109" t="n">
         <v>16010</v>
       </c>
       <c r="D109" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="E109" t="n">
         <v>16010</v>
       </c>
       <c r="F109" t="n">
-        <v>135.6234</v>
+        <v>4.2682</v>
       </c>
       <c r="G109" t="n">
-        <v>-844.8955403290404</v>
+        <v>-1743.829726754457</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4761,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="C110" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="D110" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="E110" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="F110" t="n">
-        <v>3</v>
+        <v>163.604</v>
       </c>
       <c r="G110" t="n">
-        <v>-841.8955403290404</v>
+        <v>-1907.433726754457</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4797,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>16070</v>
+        <v>16000</v>
       </c>
       <c r="C111" t="n">
-        <v>16110</v>
+        <v>16000</v>
       </c>
       <c r="D111" t="n">
-        <v>16110</v>
+        <v>16000</v>
       </c>
       <c r="E111" t="n">
-        <v>16070</v>
+        <v>16000</v>
       </c>
       <c r="F111" t="n">
-        <v>149.6075490976976</v>
+        <v>382.29</v>
       </c>
       <c r="G111" t="n">
-        <v>-692.2879912313427</v>
+        <v>-1907.433726754457</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4833,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="C112" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="D112" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="E112" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="F112" t="n">
-        <v>74.7308</v>
+        <v>237.2109</v>
       </c>
       <c r="G112" t="n">
-        <v>-767.0187912313428</v>
+        <v>-1670.222826754457</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4869,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>16070</v>
+        <v>16010</v>
       </c>
       <c r="C113" t="n">
-        <v>16070</v>
+        <v>16000</v>
       </c>
       <c r="D113" t="n">
-        <v>16070</v>
+        <v>16010</v>
       </c>
       <c r="E113" t="n">
-        <v>16070</v>
+        <v>16000</v>
       </c>
       <c r="F113" t="n">
-        <v>5.6673</v>
+        <v>299.6543</v>
       </c>
       <c r="G113" t="n">
-        <v>-761.3514912313428</v>
+        <v>-1969.877126754457</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4905,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="C114" t="n">
         <v>16010</v>
       </c>
       <c r="D114" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="E114" t="n">
         <v>16010</v>
       </c>
       <c r="F114" t="n">
-        <v>121.4066</v>
+        <v>236.9397</v>
       </c>
       <c r="G114" t="n">
-        <v>-882.7580912313429</v>
+        <v>-1732.937426754457</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4941,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="C115" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="D115" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="E115" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="F115" t="n">
-        <v>9.109999999999999</v>
+        <v>15</v>
       </c>
       <c r="G115" t="n">
-        <v>-873.6480912313428</v>
+        <v>-1732.937426754457</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4977,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="C116" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="D116" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="E116" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="F116" t="n">
-        <v>5.2352</v>
+        <v>20</v>
       </c>
       <c r="G116" t="n">
-        <v>-873.6480912313428</v>
+        <v>-1732.937426754457</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +5013,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="C117" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="D117" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="E117" t="n">
-        <v>16020</v>
+        <v>16010</v>
       </c>
       <c r="F117" t="n">
-        <v>4.55</v>
+        <v>306.9596</v>
       </c>
       <c r="G117" t="n">
-        <v>-873.6480912313428</v>
+        <v>-1732.937426754457</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,6 +5049,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4505,10 +5068,10 @@
         <v>16020</v>
       </c>
       <c r="F118" t="n">
-        <v>13.1854</v>
+        <v>50</v>
       </c>
       <c r="G118" t="n">
-        <v>-873.6480912313428</v>
+        <v>-1682.937426754457</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +5085,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>16060</v>
+        <v>16030</v>
       </c>
       <c r="C119" t="n">
-        <v>16060</v>
+        <v>16030</v>
       </c>
       <c r="D119" t="n">
-        <v>16060</v>
+        <v>16030</v>
       </c>
       <c r="E119" t="n">
-        <v>16060</v>
+        <v>16030</v>
       </c>
       <c r="F119" t="n">
-        <v>3</v>
+        <v>29.9999</v>
       </c>
       <c r="G119" t="n">
-        <v>-870.6480912313428</v>
+        <v>-1652.937526754457</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,98 +5121,113 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>16050</v>
+        <v>16040</v>
       </c>
       <c r="C120" t="n">
-        <v>16050</v>
+        <v>16040</v>
       </c>
       <c r="D120" t="n">
-        <v>16050</v>
+        <v>16040</v>
       </c>
       <c r="E120" t="n">
-        <v>16050</v>
+        <v>16040</v>
       </c>
       <c r="F120" t="n">
-        <v>66.7059</v>
+        <v>46.7035</v>
       </c>
       <c r="G120" t="n">
-        <v>-937.3539912313429</v>
+        <v>-1606.234026754457</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>16030</v>
+      </c>
+      <c r="K120" t="n">
+        <v>16030</v>
+      </c>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>16080</v>
+        <v>16040</v>
       </c>
       <c r="C121" t="n">
-        <v>16050</v>
+        <v>16030</v>
       </c>
       <c r="D121" t="n">
-        <v>16140</v>
+        <v>16040</v>
       </c>
       <c r="E121" t="n">
-        <v>16050</v>
+        <v>16030</v>
       </c>
       <c r="F121" t="n">
-        <v>910.5780999999999</v>
+        <v>21.2282</v>
       </c>
       <c r="G121" t="n">
-        <v>-937.3539912313429</v>
+        <v>-1627.462226754457</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>16040</v>
+      </c>
+      <c r="K121" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>16170</v>
+        <v>16030</v>
       </c>
       <c r="C122" t="n">
-        <v>16210</v>
+        <v>16030</v>
       </c>
       <c r="D122" t="n">
-        <v>16210</v>
+        <v>16030</v>
       </c>
       <c r="E122" t="n">
-        <v>16170</v>
+        <v>16030</v>
       </c>
       <c r="F122" t="n">
-        <v>508.0259</v>
+        <v>3.53</v>
       </c>
       <c r="G122" t="n">
-        <v>-429.3280912313429</v>
+        <v>-1627.462226754457</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4657,33 +5236,40 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>16230</v>
+        <v>16030</v>
       </c>
       <c r="C123" t="n">
-        <v>16230</v>
+        <v>16010</v>
       </c>
       <c r="D123" t="n">
-        <v>16230</v>
+        <v>16030</v>
       </c>
       <c r="E123" t="n">
-        <v>16230</v>
+        <v>16010</v>
       </c>
       <c r="F123" t="n">
-        <v>1</v>
+        <v>23.2377</v>
       </c>
       <c r="G123" t="n">
-        <v>-428.3280912313429</v>
+        <v>-1650.699926754457</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4692,33 +5278,40 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>16300</v>
+        <v>16010</v>
       </c>
       <c r="C124" t="n">
-        <v>16300</v>
+        <v>15980</v>
       </c>
       <c r="D124" t="n">
-        <v>16300</v>
+        <v>16010</v>
       </c>
       <c r="E124" t="n">
-        <v>16300</v>
+        <v>15980</v>
       </c>
       <c r="F124" t="n">
-        <v>6.9747</v>
+        <v>350.1508</v>
       </c>
       <c r="G124" t="n">
-        <v>-421.3533912313429</v>
+        <v>-2000.850726754457</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4727,33 +5320,40 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>16350</v>
+        <v>15980</v>
       </c>
       <c r="C125" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="D125" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="E125" t="n">
-        <v>16350</v>
+        <v>15980</v>
       </c>
       <c r="F125" t="n">
-        <v>301.262</v>
+        <v>46.2288</v>
       </c>
       <c r="G125" t="n">
-        <v>-120.0913912313429</v>
+        <v>-2000.850726754457</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4762,33 +5362,40 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>16440</v>
+        <v>15980</v>
       </c>
       <c r="C126" t="n">
-        <v>16450</v>
+        <v>15980</v>
       </c>
       <c r="D126" t="n">
-        <v>16450</v>
+        <v>15980</v>
       </c>
       <c r="E126" t="n">
-        <v>16440</v>
+        <v>15980</v>
       </c>
       <c r="F126" t="n">
-        <v>110.7311</v>
+        <v>2.3429</v>
       </c>
       <c r="G126" t="n">
-        <v>-9.360291231342927</v>
+        <v>-2000.850726754457</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4797,33 +5404,40 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="C127" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="D127" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="E127" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="F127" t="n">
-        <v>14.21</v>
+        <v>0.9475</v>
       </c>
       <c r="G127" t="n">
-        <v>-23.57029123134293</v>
+        <v>-2000.850726754457</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4832,68 +5446,84 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="C128" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="D128" t="n">
-        <v>16440</v>
+        <v>15980</v>
       </c>
       <c r="E128" t="n">
-        <v>16430</v>
+        <v>15980</v>
       </c>
       <c r="F128" t="n">
-        <v>204.2924</v>
+        <v>125</v>
       </c>
       <c r="G128" t="n">
-        <v>-23.57029123134293</v>
+        <v>-2000.850726754457</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>15980</v>
+      </c>
+      <c r="K128" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>16440</v>
+        <v>15980</v>
       </c>
       <c r="C129" t="n">
-        <v>16440</v>
+        <v>15980</v>
       </c>
       <c r="D129" t="n">
-        <v>16440</v>
+        <v>15980</v>
       </c>
       <c r="E129" t="n">
-        <v>16440</v>
+        <v>15980</v>
       </c>
       <c r="F129" t="n">
-        <v>4.7554</v>
+        <v>9.3803</v>
       </c>
       <c r="G129" t="n">
-        <v>-18.81489123134293</v>
+        <v>-2000.850726754457</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4902,33 +5532,40 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>16440</v>
+        <v>16000</v>
       </c>
       <c r="C130" t="n">
-        <v>16480</v>
+        <v>16000</v>
       </c>
       <c r="D130" t="n">
-        <v>16480</v>
+        <v>16000</v>
       </c>
       <c r="E130" t="n">
-        <v>16440</v>
+        <v>16000</v>
       </c>
       <c r="F130" t="n">
-        <v>295.868</v>
+        <v>10.0988</v>
       </c>
       <c r="G130" t="n">
-        <v>277.0531087686571</v>
+        <v>-1990.751926754457</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4937,33 +5574,40 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>16470</v>
+        <v>16000</v>
       </c>
       <c r="C131" t="n">
-        <v>16480</v>
+        <v>16000</v>
       </c>
       <c r="D131" t="n">
-        <v>16480</v>
+        <v>16000</v>
       </c>
       <c r="E131" t="n">
-        <v>16470</v>
+        <v>16000</v>
       </c>
       <c r="F131" t="n">
-        <v>66.6345</v>
+        <v>4.8205</v>
       </c>
       <c r="G131" t="n">
-        <v>277.0531087686571</v>
+        <v>-1990.751926754457</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4972,33 +5616,40 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>16470</v>
+        <v>16110</v>
       </c>
       <c r="C132" t="n">
-        <v>16400</v>
+        <v>16110</v>
       </c>
       <c r="D132" t="n">
-        <v>16470</v>
+        <v>16110</v>
       </c>
       <c r="E132" t="n">
-        <v>16400</v>
+        <v>16110</v>
       </c>
       <c r="F132" t="n">
-        <v>164.1233</v>
+        <v>10.1045</v>
       </c>
       <c r="G132" t="n">
-        <v>112.9298087686571</v>
+        <v>-1980.647426754457</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5007,33 +5658,40 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>16380</v>
+        <v>15980</v>
       </c>
       <c r="C133" t="n">
-        <v>16380</v>
+        <v>15980</v>
       </c>
       <c r="D133" t="n">
-        <v>16380</v>
+        <v>15980</v>
       </c>
       <c r="E133" t="n">
-        <v>16380</v>
+        <v>15980</v>
       </c>
       <c r="F133" t="n">
-        <v>0.6375999999999999</v>
+        <v>120</v>
       </c>
       <c r="G133" t="n">
-        <v>112.2922087686571</v>
+        <v>-2100.647426754457</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5042,33 +5700,40 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>16380</v>
+        <v>16100</v>
       </c>
       <c r="C134" t="n">
-        <v>16380</v>
+        <v>16300</v>
       </c>
       <c r="D134" t="n">
-        <v>16380</v>
+        <v>16300</v>
       </c>
       <c r="E134" t="n">
-        <v>16380</v>
+        <v>16100</v>
       </c>
       <c r="F134" t="n">
-        <v>59.7417</v>
+        <v>109.5</v>
       </c>
       <c r="G134" t="n">
-        <v>112.2922087686571</v>
+        <v>-1991.147426754457</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5077,33 +5742,40 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>16370</v>
+        <v>16080</v>
       </c>
       <c r="C135" t="n">
-        <v>16370</v>
+        <v>16080</v>
       </c>
       <c r="D135" t="n">
-        <v>16370</v>
+        <v>16090</v>
       </c>
       <c r="E135" t="n">
-        <v>16370</v>
+        <v>16080</v>
       </c>
       <c r="F135" t="n">
-        <v>4.8729</v>
+        <v>29.2342</v>
       </c>
       <c r="G135" t="n">
-        <v>107.4193087686571</v>
+        <v>-2020.381626754457</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5112,33 +5784,40 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>16370</v>
+        <v>16080</v>
       </c>
       <c r="C136" t="n">
-        <v>16370</v>
+        <v>16060</v>
       </c>
       <c r="D136" t="n">
-        <v>16370</v>
+        <v>16080</v>
       </c>
       <c r="E136" t="n">
-        <v>16370</v>
+        <v>16060</v>
       </c>
       <c r="F136" t="n">
-        <v>0.1144</v>
+        <v>56.8965</v>
       </c>
       <c r="G136" t="n">
-        <v>107.4193087686571</v>
+        <v>-2077.278126754457</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5147,33 +5826,40 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>16350</v>
+        <v>16080</v>
       </c>
       <c r="C137" t="n">
-        <v>16350</v>
+        <v>16070</v>
       </c>
       <c r="D137" t="n">
-        <v>16350</v>
+        <v>16080</v>
       </c>
       <c r="E137" t="n">
-        <v>16350</v>
+        <v>16070</v>
       </c>
       <c r="F137" t="n">
-        <v>7.1829</v>
+        <v>249.5069</v>
       </c>
       <c r="G137" t="n">
-        <v>100.2364087686571</v>
+        <v>-1827.771226754457</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5182,33 +5868,40 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>16350</v>
+        <v>16080</v>
       </c>
       <c r="C138" t="n">
-        <v>16440</v>
+        <v>16080</v>
       </c>
       <c r="D138" t="n">
-        <v>16440</v>
+        <v>16080</v>
       </c>
       <c r="E138" t="n">
-        <v>16310</v>
+        <v>16080</v>
       </c>
       <c r="F138" t="n">
-        <v>223.6150644768856</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="G138" t="n">
-        <v>323.8514732455426</v>
+        <v>-1827.690526754457</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5217,33 +5910,40 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>16330</v>
+        <v>16160</v>
       </c>
       <c r="C139" t="n">
-        <v>16320</v>
+        <v>16160</v>
       </c>
       <c r="D139" t="n">
-        <v>16330</v>
+        <v>16160</v>
       </c>
       <c r="E139" t="n">
-        <v>16320</v>
+        <v>16160</v>
       </c>
       <c r="F139" t="n">
-        <v>101.8811</v>
+        <v>171.4199</v>
       </c>
       <c r="G139" t="n">
-        <v>221.9703732455426</v>
+        <v>-1656.270626754457</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5252,33 +5952,40 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="C140" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="D140" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="E140" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="F140" t="n">
-        <v>78.8493</v>
+        <v>2.0609</v>
       </c>
       <c r="G140" t="n">
-        <v>300.8196732455426</v>
+        <v>-1656.270626754457</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5287,33 +5994,40 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="C141" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="D141" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="E141" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="F141" t="n">
-        <v>6.1506</v>
+        <v>3.561</v>
       </c>
       <c r="G141" t="n">
-        <v>300.8196732455426</v>
+        <v>-1656.270626754457</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5322,33 +6036,40 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="C142" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="D142" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="E142" t="n">
-        <v>16430</v>
+        <v>16160</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0001</v>
+        <v>27.7002</v>
       </c>
       <c r="G142" t="n">
-        <v>300.8196732455426</v>
+        <v>-1656.270626754457</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5357,33 +6078,40 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>16300</v>
+        <v>16160</v>
       </c>
       <c r="C143" t="n">
-        <v>16300</v>
+        <v>16160</v>
       </c>
       <c r="D143" t="n">
-        <v>16300</v>
+        <v>16160</v>
       </c>
       <c r="E143" t="n">
-        <v>16300</v>
+        <v>16160</v>
       </c>
       <c r="F143" t="n">
-        <v>0.6605</v>
+        <v>36.991</v>
       </c>
       <c r="G143" t="n">
-        <v>300.1591732455426</v>
+        <v>-1656.270626754457</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5392,33 +6120,40 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="C144" t="n">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="D144" t="n">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="E144" t="n">
-        <v>16300</v>
+        <v>16100</v>
       </c>
       <c r="F144" t="n">
-        <v>2.5267</v>
+        <v>4</v>
       </c>
       <c r="G144" t="n">
-        <v>300.1591732455426</v>
+        <v>-1660.270626754457</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5427,33 +6162,40 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>16270</v>
+        <v>16170</v>
       </c>
       <c r="C145" t="n">
-        <v>16230</v>
+        <v>16170</v>
       </c>
       <c r="D145" t="n">
-        <v>16270</v>
+        <v>16170</v>
       </c>
       <c r="E145" t="n">
-        <v>16230</v>
+        <v>16170</v>
       </c>
       <c r="F145" t="n">
-        <v>261.4038</v>
+        <v>218.2125</v>
       </c>
       <c r="G145" t="n">
-        <v>38.75537324554261</v>
+        <v>-1442.058126754457</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5462,33 +6204,40 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>16220</v>
+        <v>16160</v>
       </c>
       <c r="C146" t="n">
-        <v>16210</v>
+        <v>16160</v>
       </c>
       <c r="D146" t="n">
-        <v>16220</v>
+        <v>16160</v>
       </c>
       <c r="E146" t="n">
-        <v>16210</v>
+        <v>16160</v>
       </c>
       <c r="F146" t="n">
-        <v>7.5184</v>
+        <v>13.63</v>
       </c>
       <c r="G146" t="n">
-        <v>31.23697324554261</v>
+        <v>-1455.688126754457</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5497,11 +6246,18 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5511,19 +6267,19 @@
         <v>16130</v>
       </c>
       <c r="C147" t="n">
-        <v>16020</v>
+        <v>16130</v>
       </c>
       <c r="D147" t="n">
         <v>16130</v>
       </c>
       <c r="E147" t="n">
-        <v>16020</v>
+        <v>16130</v>
       </c>
       <c r="F147" t="n">
-        <v>957.1923</v>
+        <v>2.1709</v>
       </c>
       <c r="G147" t="n">
-        <v>-925.9553267544575</v>
+        <v>-1457.859026754457</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5532,33 +6288,40 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>16010</v>
+        <v>16160</v>
       </c>
       <c r="C148" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="D148" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="E148" t="n">
-        <v>16010</v>
+        <v>16160</v>
       </c>
       <c r="F148" t="n">
-        <v>245.8709</v>
+        <v>21.8055</v>
       </c>
       <c r="G148" t="n">
-        <v>-1171.826226754457</v>
+        <v>-1436.053526754457</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5567,33 +6330,40 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>16010</v>
+        <v>16150</v>
       </c>
       <c r="C149" t="n">
-        <v>16000</v>
+        <v>16150</v>
       </c>
       <c r="D149" t="n">
-        <v>16010</v>
+        <v>16150</v>
       </c>
       <c r="E149" t="n">
-        <v>16000</v>
+        <v>16150</v>
       </c>
       <c r="F149" t="n">
-        <v>576.2717</v>
+        <v>3</v>
       </c>
       <c r="G149" t="n">
-        <v>-1748.097926754457</v>
+        <v>-1439.053526754457</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5602,33 +6372,40 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="C150" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="D150" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="E150" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="F150" t="n">
-        <v>1.5</v>
+        <v>2.9813</v>
       </c>
       <c r="G150" t="n">
-        <v>-1748.097926754457</v>
+        <v>-1436.072226754457</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5637,33 +6414,40 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>16010</v>
+        <v>16160</v>
       </c>
       <c r="C151" t="n">
-        <v>16010</v>
+        <v>16160</v>
       </c>
       <c r="D151" t="n">
-        <v>16010</v>
+        <v>16160</v>
       </c>
       <c r="E151" t="n">
-        <v>16010</v>
+        <v>16160</v>
       </c>
       <c r="F151" t="n">
-        <v>4.2682</v>
+        <v>6.81</v>
       </c>
       <c r="G151" t="n">
-        <v>-1743.829726754457</v>
+        <v>-1442.882226754457</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5672,33 +6456,40 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="C152" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="D152" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="E152" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="F152" t="n">
-        <v>163.604</v>
+        <v>3.2395</v>
       </c>
       <c r="G152" t="n">
-        <v>-1907.433726754457</v>
+        <v>-1439.642726754457</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5707,33 +6498,40 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>16000</v>
+        <v>16160</v>
       </c>
       <c r="C153" t="n">
-        <v>16000</v>
+        <v>16160</v>
       </c>
       <c r="D153" t="n">
-        <v>16000</v>
+        <v>16160</v>
       </c>
       <c r="E153" t="n">
-        <v>16000</v>
+        <v>16160</v>
       </c>
       <c r="F153" t="n">
-        <v>382.29</v>
+        <v>13</v>
       </c>
       <c r="G153" t="n">
-        <v>-1907.433726754457</v>
+        <v>-1452.642726754457</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5742,33 +6540,40 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="C154" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="D154" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="E154" t="n">
-        <v>16000</v>
+        <v>16170</v>
       </c>
       <c r="F154" t="n">
-        <v>237.2109</v>
+        <v>50.015</v>
       </c>
       <c r="G154" t="n">
-        <v>-1670.222826754457</v>
+        <v>-1402.627726754457</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5777,33 +6582,40 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>16010</v>
+        <v>16160</v>
       </c>
       <c r="C155" t="n">
-        <v>16000</v>
+        <v>16160</v>
       </c>
       <c r="D155" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="E155" t="n">
-        <v>16000</v>
+        <v>16160</v>
       </c>
       <c r="F155" t="n">
-        <v>299.6543</v>
+        <v>63.428</v>
       </c>
       <c r="G155" t="n">
-        <v>-1969.877126754457</v>
+        <v>-1466.055726754457</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5812,33 +6624,40 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>16030</v>
+        <v>16150</v>
       </c>
       <c r="C156" t="n">
-        <v>16010</v>
+        <v>16150</v>
       </c>
       <c r="D156" t="n">
-        <v>16030</v>
+        <v>16150</v>
       </c>
       <c r="E156" t="n">
-        <v>16010</v>
+        <v>16150</v>
       </c>
       <c r="F156" t="n">
-        <v>236.9397</v>
+        <v>14.7419</v>
       </c>
       <c r="G156" t="n">
-        <v>-1732.937426754457</v>
+        <v>-1480.797626754457</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5847,72 +6666,82 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="C157" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="D157" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="E157" t="n">
-        <v>16010</v>
+        <v>16170</v>
       </c>
       <c r="F157" t="n">
-        <v>15</v>
+        <v>11.31725417439703</v>
       </c>
       <c r="G157" t="n">
-        <v>-1732.937426754457</v>
+        <v>-1469.48037258006</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>16010</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>16010</v>
-      </c>
-      <c r="L157" t="inlineStr"/>
+        <v>16030</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>16010</v>
+        <v>16120</v>
       </c>
       <c r="C158" t="n">
-        <v>16010</v>
+        <v>16110</v>
       </c>
       <c r="D158" t="n">
-        <v>16010</v>
+        <v>16120</v>
       </c>
       <c r="E158" t="n">
-        <v>16010</v>
+        <v>16110</v>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>41.9972</v>
       </c>
       <c r="G158" t="n">
-        <v>-1732.937426754457</v>
+        <v>-1511.47757258006</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5922,38 +6751,39 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>16010</v>
+        <v>16070</v>
       </c>
       <c r="C159" t="n">
-        <v>16010</v>
+        <v>16070</v>
       </c>
       <c r="D159" t="n">
-        <v>16010</v>
+        <v>16070</v>
       </c>
       <c r="E159" t="n">
-        <v>16010</v>
+        <v>16070</v>
       </c>
       <c r="F159" t="n">
-        <v>306.9596</v>
+        <v>40</v>
       </c>
       <c r="G159" t="n">
-        <v>-1732.937426754457</v>
+        <v>-1551.47757258006</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5963,38 +6793,39 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>16010</v>
+        <v>16030</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>16020</v>
+        <v>16120</v>
       </c>
       <c r="C160" t="n">
-        <v>16020</v>
+        <v>16120</v>
       </c>
       <c r="D160" t="n">
-        <v>16020</v>
+        <v>16120</v>
       </c>
       <c r="E160" t="n">
-        <v>16020</v>
+        <v>16120</v>
       </c>
       <c r="F160" t="n">
-        <v>50</v>
+        <v>0.1861042183622829</v>
       </c>
       <c r="G160" t="n">
-        <v>-1682.937426754457</v>
+        <v>-1551.291468361698</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6003,33 +6834,40 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>16030</v>
+        <v>16070</v>
       </c>
       <c r="C161" t="n">
-        <v>16030</v>
+        <v>16070</v>
       </c>
       <c r="D161" t="n">
-        <v>16030</v>
+        <v>16070</v>
       </c>
       <c r="E161" t="n">
-        <v>16030</v>
+        <v>16070</v>
       </c>
       <c r="F161" t="n">
-        <v>29.9999</v>
+        <v>5.5783</v>
       </c>
       <c r="G161" t="n">
-        <v>-1652.937526754457</v>
+        <v>-1556.869768361698</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6038,33 +6876,40 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>16040</v>
+        <v>16070</v>
       </c>
       <c r="C162" t="n">
-        <v>16040</v>
+        <v>16070</v>
       </c>
       <c r="D162" t="n">
-        <v>16040</v>
+        <v>16070</v>
       </c>
       <c r="E162" t="n">
-        <v>16040</v>
+        <v>16070</v>
       </c>
       <c r="F162" t="n">
-        <v>46.7035</v>
+        <v>7.6143</v>
       </c>
       <c r="G162" t="n">
-        <v>-1606.234026754457</v>
+        <v>-1556.869768361698</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6073,85 +6918,93 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>16030</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>16040</v>
+        <v>16070</v>
       </c>
       <c r="C163" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="D163" t="n">
-        <v>16040</v>
+        <v>16070</v>
       </c>
       <c r="E163" t="n">
-        <v>16030</v>
+        <v>16000</v>
       </c>
       <c r="F163" t="n">
-        <v>21.2282</v>
+        <v>107</v>
       </c>
       <c r="G163" t="n">
-        <v>-1627.462226754457</v>
+        <v>-1663.869768361698</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>16040</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>16030</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="C164" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="D164" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="E164" t="n">
-        <v>16030</v>
+        <v>16010</v>
       </c>
       <c r="F164" t="n">
-        <v>3.53</v>
+        <v>60.2154</v>
       </c>
       <c r="G164" t="n">
-        <v>-1627.462226754457</v>
+        <v>-1603.654368361698</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>16030</v>
-      </c>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>16030</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6160,37 +7013,42 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>16030</v>
+        <v>15990</v>
       </c>
       <c r="C165" t="n">
-        <v>16010</v>
+        <v>15990</v>
       </c>
       <c r="D165" t="n">
-        <v>16030</v>
+        <v>15990</v>
       </c>
       <c r="E165" t="n">
-        <v>16010</v>
+        <v>15990</v>
       </c>
       <c r="F165" t="n">
-        <v>23.2377</v>
+        <v>3.8792</v>
       </c>
       <c r="G165" t="n">
-        <v>-1650.699926754457</v>
+        <v>-1607.533568361698</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>16010</v>
+      </c>
+      <c r="K165" t="n">
+        <v>16030</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6199,28 +7057,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>16010</v>
+        <v>16000</v>
       </c>
       <c r="C166" t="n">
-        <v>15980</v>
+        <v>16000</v>
       </c>
       <c r="D166" t="n">
-        <v>16010</v>
+        <v>16000</v>
       </c>
       <c r="E166" t="n">
-        <v>15980</v>
+        <v>16000</v>
       </c>
       <c r="F166" t="n">
-        <v>350.1508</v>
+        <v>28.5715</v>
       </c>
       <c r="G166" t="n">
-        <v>-2000.850726754457</v>
+        <v>-1578.962068361698</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6229,7 +7088,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>16030</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6238,28 +7099,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>15980</v>
+        <v>16000</v>
       </c>
       <c r="C167" t="n">
-        <v>15980</v>
+        <v>16000</v>
       </c>
       <c r="D167" t="n">
-        <v>15980</v>
+        <v>16000</v>
       </c>
       <c r="E167" t="n">
-        <v>15980</v>
+        <v>16000</v>
       </c>
       <c r="F167" t="n">
-        <v>46.2288</v>
+        <v>8.728400000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>-2000.850726754457</v>
+        <v>-1578.962068361698</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6268,7 +7130,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>16030</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6277,37 +7141,42 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>15980</v>
+        <v>15990</v>
       </c>
       <c r="C168" t="n">
-        <v>15980</v>
+        <v>15990</v>
       </c>
       <c r="D168" t="n">
-        <v>15980</v>
+        <v>15990</v>
       </c>
       <c r="E168" t="n">
-        <v>15980</v>
+        <v>15990</v>
       </c>
       <c r="F168" t="n">
-        <v>2.3429</v>
+        <v>93.4543</v>
       </c>
       <c r="G168" t="n">
-        <v>-2000.850726754457</v>
+        <v>-1672.416368361698</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>16000</v>
+      </c>
+      <c r="K168" t="n">
+        <v>16030</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,1652 +7185,7 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C169" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D169" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E169" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F169" t="n">
-        <v>0.9475</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C170" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D170" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E170" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F170" t="n">
-        <v>125</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C171" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D171" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E171" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F171" t="n">
-        <v>9.3803</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C172" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D172" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E172" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F172" t="n">
-        <v>10.0988</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-1990.751926754457</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C173" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D173" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E173" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4.8205</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-1990.751926754457</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>16110</v>
-      </c>
-      <c r="C174" t="n">
-        <v>16110</v>
-      </c>
-      <c r="D174" t="n">
-        <v>16110</v>
-      </c>
-      <c r="E174" t="n">
-        <v>16110</v>
-      </c>
-      <c r="F174" t="n">
-        <v>10.1045</v>
-      </c>
-      <c r="G174" t="n">
-        <v>-1980.647426754457</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C175" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D175" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E175" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F175" t="n">
-        <v>120</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-2100.647426754457</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>16100</v>
-      </c>
-      <c r="C176" t="n">
-        <v>16300</v>
-      </c>
-      <c r="D176" t="n">
-        <v>16300</v>
-      </c>
-      <c r="E176" t="n">
-        <v>16100</v>
-      </c>
-      <c r="F176" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-1991.147426754457</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C177" t="n">
-        <v>16080</v>
-      </c>
-      <c r="D177" t="n">
-        <v>16090</v>
-      </c>
-      <c r="E177" t="n">
-        <v>16080</v>
-      </c>
-      <c r="F177" t="n">
-        <v>29.2342</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-2020.381626754457</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C178" t="n">
-        <v>16060</v>
-      </c>
-      <c r="D178" t="n">
-        <v>16080</v>
-      </c>
-      <c r="E178" t="n">
-        <v>16060</v>
-      </c>
-      <c r="F178" t="n">
-        <v>56.8965</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-2077.278126754457</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C179" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D179" t="n">
-        <v>16080</v>
-      </c>
-      <c r="E179" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F179" t="n">
-        <v>249.5069</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1827.771226754457</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C180" t="n">
-        <v>16080</v>
-      </c>
-      <c r="D180" t="n">
-        <v>16080</v>
-      </c>
-      <c r="E180" t="n">
-        <v>16080</v>
-      </c>
-      <c r="F180" t="n">
-        <v>0.08069999999999999</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1827.690526754457</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C181" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D181" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E181" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F181" t="n">
-        <v>171.4199</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C182" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D182" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E182" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2.0609</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C183" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D183" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E183" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F183" t="n">
-        <v>3.561</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C184" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D184" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E184" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F184" t="n">
-        <v>27.7002</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C185" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D185" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E185" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F185" t="n">
-        <v>36.991</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>16100</v>
-      </c>
-      <c r="C186" t="n">
-        <v>16100</v>
-      </c>
-      <c r="D186" t="n">
-        <v>16100</v>
-      </c>
-      <c r="E186" t="n">
-        <v>16100</v>
-      </c>
-      <c r="F186" t="n">
-        <v>4</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1660.270626754457</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C187" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D187" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E187" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F187" t="n">
-        <v>218.2125</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1442.058126754457</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C188" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D188" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E188" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F188" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1455.688126754457</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>16130</v>
-      </c>
-      <c r="C189" t="n">
-        <v>16130</v>
-      </c>
-      <c r="D189" t="n">
-        <v>16130</v>
-      </c>
-      <c r="E189" t="n">
-        <v>16130</v>
-      </c>
-      <c r="F189" t="n">
-        <v>2.1709</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1457.859026754457</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C190" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D190" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E190" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F190" t="n">
-        <v>21.8055</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1436.053526754457</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>16150</v>
-      </c>
-      <c r="C191" t="n">
-        <v>16150</v>
-      </c>
-      <c r="D191" t="n">
-        <v>16150</v>
-      </c>
-      <c r="E191" t="n">
-        <v>16150</v>
-      </c>
-      <c r="F191" t="n">
-        <v>3</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1439.053526754457</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C192" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D192" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E192" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F192" t="n">
-        <v>2.9813</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1436.072226754457</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C193" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D193" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E193" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F193" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1442.882226754457</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C194" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D194" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E194" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F194" t="n">
-        <v>3.2395</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1439.642726754457</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C195" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D195" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E195" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F195" t="n">
-        <v>13</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-1452.642726754457</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C196" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D196" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E196" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F196" t="n">
-        <v>50.015</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-1402.627726754457</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C197" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D197" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E197" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F197" t="n">
-        <v>63.428</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-1466.055726754457</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>16150</v>
-      </c>
-      <c r="C198" t="n">
-        <v>16150</v>
-      </c>
-      <c r="D198" t="n">
-        <v>16150</v>
-      </c>
-      <c r="E198" t="n">
-        <v>16150</v>
-      </c>
-      <c r="F198" t="n">
-        <v>14.7419</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-1480.797626754457</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C199" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D199" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E199" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F199" t="n">
-        <v>11.31725417439703</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-1469.48037258006</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>16120</v>
-      </c>
-      <c r="C200" t="n">
-        <v>16110</v>
-      </c>
-      <c r="D200" t="n">
-        <v>16120</v>
-      </c>
-      <c r="E200" t="n">
-        <v>16110</v>
-      </c>
-      <c r="F200" t="n">
-        <v>41.9972</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-1511.47757258006</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C201" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D201" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E201" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F201" t="n">
-        <v>40</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1551.47757258006</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>16120</v>
-      </c>
-      <c r="C202" t="n">
-        <v>16120</v>
-      </c>
-      <c r="D202" t="n">
-        <v>16120</v>
-      </c>
-      <c r="E202" t="n">
-        <v>16120</v>
-      </c>
-      <c r="F202" t="n">
-        <v>0.1861042183622829</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1551.291468361698</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C203" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D203" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E203" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F203" t="n">
-        <v>5.5783</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1556.869768361698</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C204" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D204" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E204" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F204" t="n">
-        <v>7.6143</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-1556.869768361698</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C205" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D205" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E205" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F205" t="n">
-        <v>107</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1663.869768361698</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C206" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D206" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E206" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F206" t="n">
-        <v>60.2154</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-1603.654368361698</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>15990</v>
-      </c>
-      <c r="C207" t="n">
-        <v>15990</v>
-      </c>
-      <c r="D207" t="n">
-        <v>15990</v>
-      </c>
-      <c r="E207" t="n">
-        <v>15990</v>
-      </c>
-      <c r="F207" t="n">
-        <v>3.8792</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-1607.533568361698</v>
-      </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="n">
-        <v>16010</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C208" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D208" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E208" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F208" t="n">
-        <v>28.5715</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1578.962068361698</v>
-      </c>
-      <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>15990</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C209" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D209" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E209" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F209" t="n">
-        <v>8.728400000000001</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1578.962068361698</v>
-      </c>
-      <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>15990</v>
-      </c>
-      <c r="C210" t="n">
-        <v>15990</v>
-      </c>
-      <c r="D210" t="n">
-        <v>15990</v>
-      </c>
-      <c r="E210" t="n">
-        <v>15990</v>
-      </c>
-      <c r="F210" t="n">
-        <v>93.4543</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1672.416368361698</v>
-      </c>
-      <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
+      <c r="N168" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-23 BackTest REP.xlsx
+++ b/BackTest/2020-01-23 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N239"/>
+  <dimension ref="A1:M239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +550,15 @@
         <v>-516.2782999999998</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>15810</v>
-      </c>
-      <c r="K5" t="n">
-        <v>15810</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -604,26 +583,15 @@
         <v>-637.8190999999998</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>15810</v>
-      </c>
-      <c r="K6" t="n">
-        <v>15810</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -648,26 +616,19 @@
         <v>-636.3090999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>15800</v>
       </c>
       <c r="J7" t="n">
         <v>15800</v>
       </c>
-      <c r="K7" t="n">
-        <v>15810</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -692,22 +653,23 @@
         <v>-636.3090999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>15890</v>
       </c>
       <c r="J8" t="n">
-        <v>15890</v>
-      </c>
-      <c r="K8" t="n">
-        <v>15890</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>15800</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -732,26 +694,23 @@
         <v>-628.0005999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>15890</v>
       </c>
       <c r="J9" t="n">
-        <v>15890</v>
-      </c>
-      <c r="K9" t="n">
-        <v>15890</v>
-      </c>
-      <c r="L9" t="inlineStr">
+        <v>15800</v>
+      </c>
+      <c r="K9" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -776,26 +735,19 @@
         <v>-642.6072999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>15960</v>
       </c>
       <c r="J10" t="n">
         <v>15960</v>
       </c>
-      <c r="K10" t="n">
-        <v>15890</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -820,22 +772,23 @@
         <v>-611.4891106343282</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>15950</v>
       </c>
       <c r="J11" t="n">
-        <v>15950</v>
-      </c>
-      <c r="K11" t="n">
-        <v>15950</v>
-      </c>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>15960</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -862,22 +815,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>15950</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>15960</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -904,22 +854,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>15950</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -946,16 +887,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -982,16 +920,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1018,16 +953,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1054,16 +986,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1090,16 +1019,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1126,16 +1052,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1162,16 +1085,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1198,16 +1118,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1234,16 +1151,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1270,16 +1184,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1304,18 +1215,15 @@
         <v>643.213989365672</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1342,16 +1250,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1376,18 +1281,15 @@
         <v>623.9766893656721</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1412,18 +1314,15 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1448,18 +1347,15 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1484,18 +1380,15 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1520,18 +1413,15 @@
         <v>511.2036893656721</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1556,18 +1446,15 @@
         <v>564.2036893656721</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1594,16 +1481,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1630,16 +1514,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1666,16 +1547,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1702,16 +1580,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1738,16 +1613,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1774,16 +1646,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1810,16 +1679,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1846,16 +1712,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1882,16 +1745,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1918,16 +1778,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1952,18 +1809,15 @@
         <v>-62.98141063432797</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1990,16 +1844,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2026,16 +1877,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2062,16 +1910,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2096,18 +1941,15 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2132,18 +1974,15 @@
         <v>-141.1724106343279</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2168,18 +2007,15 @@
         <v>-106.0423106343279</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2206,16 +2042,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2240,18 +2073,15 @@
         <v>-125.5423106343279</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2278,16 +2108,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2314,16 +2141,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2350,16 +2174,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2384,18 +2205,15 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2422,16 +2240,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2458,16 +2273,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2494,16 +2306,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2528,18 +2337,15 @@
         <v>-123.4060106343279</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2566,16 +2372,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2602,16 +2405,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2638,16 +2438,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2674,16 +2471,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2710,16 +2504,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2746,16 +2537,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2782,16 +2570,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2818,16 +2603,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2854,16 +2636,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2890,16 +2669,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2926,16 +2702,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2962,16 +2735,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2998,16 +2768,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3034,16 +2801,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3070,16 +2834,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3106,16 +2867,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3142,16 +2900,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3178,16 +2933,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3214,16 +2966,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3250,16 +2999,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3286,16 +3032,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3322,16 +3065,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3358,16 +3098,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3394,16 +3131,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3430,16 +3164,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3466,16 +3197,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3502,16 +3230,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3538,16 +3263,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3574,16 +3296,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3610,16 +3329,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3646,16 +3362,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3682,16 +3395,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3718,16 +3428,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3754,16 +3461,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3790,16 +3494,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3826,16 +3527,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3862,16 +3560,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3898,16 +3593,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3934,16 +3626,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3970,16 +3659,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4004,18 +3690,19 @@
         <v>-608.8038106343279</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>15950</v>
+      </c>
+      <c r="J99" t="n">
+        <v>15950</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4040,18 +3727,23 @@
         <v>-608.8038106343279</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+        <v>15950</v>
+      </c>
+      <c r="J100" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4076,18 +3768,23 @@
         <v>-453.9453106343279</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+        <v>15950</v>
+      </c>
+      <c r="J101" t="n">
+        <v>15950</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4114,16 +3811,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4148,18 +3842,19 @@
         <v>-347.4000106343279</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>16020</v>
+      </c>
+      <c r="J103" t="n">
+        <v>16020</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4186,16 +3881,19 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4222,16 +3920,19 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>16020</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4258,16 +3959,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4294,16 +3992,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4330,16 +4025,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4366,16 +4058,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4402,16 +4091,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4438,16 +4124,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4474,16 +4157,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4510,16 +4190,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4546,16 +4223,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4582,16 +4256,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4618,16 +4289,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4654,16 +4322,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4690,16 +4355,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4726,16 +4388,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4762,16 +4421,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4798,16 +4454,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4834,16 +4487,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4870,16 +4520,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4906,16 +4553,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4942,16 +4586,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4978,16 +4619,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5014,16 +4652,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5050,16 +4685,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5086,16 +4718,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5122,16 +4751,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5158,16 +4784,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5194,16 +4817,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5230,16 +4850,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5266,16 +4883,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5300,22 +4914,15 @@
         <v>-709.2272912313429</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>16030</v>
-      </c>
-      <c r="K135" t="n">
-        <v>16030</v>
-      </c>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5342,22 +4949,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>16030</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5384,22 +4982,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>16030</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5424,18 +5013,21 @@
         <v>-844.8955403290404</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>16030</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5462,16 +5054,17 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5498,16 +5091,17 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5534,16 +5128,17 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5570,16 +5165,17 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5606,16 +5202,17 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5642,16 +5239,17 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5678,16 +5276,17 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5714,16 +5313,17 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5750,16 +5350,17 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5786,16 +5387,17 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5822,16 +5424,17 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5858,16 +5461,17 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5894,16 +5498,17 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5930,16 +5535,17 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5966,16 +5572,17 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6002,16 +5609,17 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6038,16 +5646,17 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6074,16 +5683,17 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6110,16 +5720,17 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>1</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6146,16 +5757,17 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6182,16 +5794,17 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>1</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6218,16 +5831,17 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>1</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6254,16 +5868,17 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6290,16 +5905,17 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6326,16 +5942,17 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6362,16 +5979,17 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>1</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6398,16 +6016,17 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6434,16 +6053,17 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6470,16 +6090,17 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6506,16 +6127,17 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6542,16 +6164,17 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6578,16 +6201,17 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6614,16 +6238,17 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6650,16 +6275,17 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6686,16 +6312,17 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6722,16 +6349,17 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6758,16 +6386,17 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6794,16 +6423,17 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6830,16 +6460,17 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6866,16 +6497,17 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6902,16 +6534,17 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6938,16 +6571,17 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6974,16 +6608,17 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7010,16 +6645,17 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7046,16 +6682,17 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7082,16 +6719,17 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7118,16 +6756,17 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7154,16 +6793,17 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7190,16 +6830,17 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7226,16 +6867,17 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7262,16 +6904,17 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7298,16 +6941,17 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7334,16 +6978,17 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7370,16 +7015,17 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7406,16 +7052,17 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7442,16 +7089,17 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7478,16 +7126,17 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7514,16 +7163,17 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7548,22 +7198,19 @@
         <v>-2000.850726754457</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="n">
-        <v>15980</v>
-      </c>
-      <c r="K197" t="n">
-        <v>15980</v>
-      </c>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7588,26 +7235,19 @@
         <v>-2000.850726754457</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="n">
-        <v>15980</v>
-      </c>
-      <c r="K198" t="n">
-        <v>15980</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7632,26 +7272,19 @@
         <v>-2000.850726754457</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="n">
-        <v>15980</v>
-      </c>
-      <c r="K199" t="n">
-        <v>15980</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7676,22 +7309,19 @@
         <v>-2000.850726754457</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>15980</v>
-      </c>
-      <c r="K200" t="n">
-        <v>15980</v>
-      </c>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7718,22 +7348,17 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>15980</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7760,22 +7385,17 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>15980</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7802,16 +7422,17 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7838,16 +7459,17 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7874,16 +7496,17 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7910,16 +7533,17 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7946,16 +7570,17 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7982,16 +7607,17 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8018,16 +7644,17 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8054,16 +7681,17 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8090,16 +7718,17 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8126,16 +7755,17 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8162,16 +7792,17 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8198,16 +7829,17 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8234,16 +7866,17 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8270,16 +7903,17 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8306,16 +7940,17 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8342,16 +7977,17 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8378,16 +8014,17 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8414,16 +8051,17 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8450,16 +8088,17 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8486,16 +8125,17 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8522,16 +8162,17 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8558,16 +8199,17 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8594,16 +8236,17 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8630,16 +8273,17 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8666,16 +8310,17 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8702,16 +8347,17 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8738,16 +8384,17 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8774,16 +8421,17 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8810,16 +8458,17 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8846,16 +8495,17 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8880,22 +8530,19 @@
         <v>-1556.869768361698</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8920,26 +8567,19 @@
         <v>-1663.869768361698</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K234" t="n">
-        <v>16070</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8964,26 +8604,19 @@
         <v>-1603.654368361698</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K235" t="n">
-        <v>16070</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9008,26 +8641,19 @@
         <v>-1607.533568361698</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>16010</v>
-      </c>
-      <c r="K236" t="n">
-        <v>16070</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9052,26 +8678,19 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>15990</v>
-      </c>
-      <c r="K237" t="n">
-        <v>16070</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9096,26 +8715,19 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K238" t="n">
-        <v>16070</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9140,28 +8752,21 @@
         <v>-1672.416368361698</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>16000</v>
-      </c>
-      <c r="K239" t="n">
-        <v>16070</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest REP.xlsx
+++ b/BackTest/2020-01-23 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>-636.3090999999998</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>15800</v>
-      </c>
-      <c r="J7" t="n">
-        <v>15800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -653,19 +649,11 @@
         <v>-636.3090999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15890</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15800</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -694,19 +682,11 @@
         <v>-628.0005999999998</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15890</v>
-      </c>
-      <c r="J9" t="n">
-        <v>15800</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -735,14 +715,10 @@
         <v>-642.6072999999999</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>15960</v>
-      </c>
-      <c r="J10" t="n">
-        <v>15960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
@@ -772,19 +748,11 @@
         <v>-611.4891106343282</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J11" t="n">
-        <v>15960</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -816,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>15960</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -1215,7 +1177,7 @@
         <v>643.213989365672</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1281,7 +1243,7 @@
         <v>623.9766893656721</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1314,7 +1276,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1347,7 +1309,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1380,7 +1342,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1413,7 +1375,7 @@
         <v>511.2036893656721</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1446,7 +1408,7 @@
         <v>564.2036893656721</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1479,7 +1441,7 @@
         <v>277.4083893656721</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1512,7 +1474,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1545,7 +1507,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1578,7 +1540,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1611,7 +1573,7 @@
         <v>147.644989365672</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1644,7 +1606,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1677,7 +1639,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1710,7 +1672,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1743,7 +1705,7 @@
         <v>17.01858936567203</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1776,7 +1738,7 @@
         <v>17.01858936567203</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1809,7 +1771,7 @@
         <v>-62.98141063432797</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1842,7 +1804,7 @@
         <v>-63.08141063432797</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1875,7 +1837,7 @@
         <v>-67.89681063432798</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1908,7 +1870,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1941,7 +1903,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1974,7 +1936,7 @@
         <v>-141.1724106343279</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2007,7 +1969,7 @@
         <v>-106.0423106343279</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2040,7 +2002,7 @@
         <v>-106.0423106343279</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2073,7 +2035,7 @@
         <v>-125.5423106343279</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2106,7 +2068,7 @@
         <v>-113.403310634328</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2139,7 +2101,7 @@
         <v>-113.403310634328</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2172,7 +2134,7 @@
         <v>-113.403310634328</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2205,7 +2167,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2337,7 +2299,7 @@
         <v>-123.4060106343279</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2601,7 +2563,7 @@
         <v>-183.7307106343279</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -3690,14 +3652,10 @@
         <v>-608.8038106343279</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
-      </c>
-      <c r="I99" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J99" t="n">
-        <v>15950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
@@ -3727,19 +3685,11 @@
         <v>-608.8038106343279</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
-      </c>
-      <c r="I100" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J100" t="n">
-        <v>15950</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3768,19 +3718,11 @@
         <v>-453.9453106343279</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
-      </c>
-      <c r="I101" t="n">
-        <v>15950</v>
-      </c>
-      <c r="J101" t="n">
-        <v>15950</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3842,14 +3784,10 @@
         <v>-347.4000106343279</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>16020</v>
-      </c>
-      <c r="J103" t="n">
-        <v>16020</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
@@ -3882,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>16020</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3921,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>16020</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -5013,3569 +4939,3191 @@
         <v>-844.8955403290404</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>16030</v>
+      </c>
+      <c r="C139" t="n">
+        <v>16030</v>
+      </c>
+      <c r="D139" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E139" t="n">
+        <v>16030</v>
+      </c>
+      <c r="F139" t="n">
+        <v>3</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-841.8955403290404</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C140" t="n">
+        <v>16110</v>
+      </c>
+      <c r="D140" t="n">
+        <v>16110</v>
+      </c>
+      <c r="E140" t="n">
+        <v>16070</v>
+      </c>
+      <c r="F140" t="n">
+        <v>149.6075490976976</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-692.2879912313427</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>16030</v>
+      </c>
+      <c r="C141" t="n">
+        <v>16030</v>
+      </c>
+      <c r="D141" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E141" t="n">
+        <v>16030</v>
+      </c>
+      <c r="F141" t="n">
+        <v>74.7308</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-767.0187912313428</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C142" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D142" t="n">
+        <v>16070</v>
+      </c>
+      <c r="E142" t="n">
+        <v>16070</v>
+      </c>
+      <c r="F142" t="n">
+        <v>5.6673</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-761.3514912313428</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C143" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D143" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E143" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F143" t="n">
+        <v>121.4066</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-882.7580912313429</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C144" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D144" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E144" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F144" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-873.6480912313428</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C145" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D145" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E145" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F145" t="n">
+        <v>5.2352</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-873.6480912313428</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C146" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D146" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E146" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F146" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-873.6480912313428</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C147" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D147" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E147" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F147" t="n">
+        <v>13.1854</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-873.6480912313428</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>16060</v>
+      </c>
+      <c r="C148" t="n">
+        <v>16060</v>
+      </c>
+      <c r="D148" t="n">
+        <v>16060</v>
+      </c>
+      <c r="E148" t="n">
+        <v>16060</v>
+      </c>
+      <c r="F148" t="n">
+        <v>3</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-870.6480912313428</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>16050</v>
+      </c>
+      <c r="C149" t="n">
+        <v>16050</v>
+      </c>
+      <c r="D149" t="n">
+        <v>16050</v>
+      </c>
+      <c r="E149" t="n">
+        <v>16050</v>
+      </c>
+      <c r="F149" t="n">
+        <v>66.7059</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-937.3539912313429</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>16080</v>
+      </c>
+      <c r="C150" t="n">
+        <v>16050</v>
+      </c>
+      <c r="D150" t="n">
+        <v>16140</v>
+      </c>
+      <c r="E150" t="n">
+        <v>16050</v>
+      </c>
+      <c r="F150" t="n">
+        <v>910.5780999999999</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-937.3539912313429</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>16170</v>
+      </c>
+      <c r="C151" t="n">
+        <v>16210</v>
+      </c>
+      <c r="D151" t="n">
+        <v>16210</v>
+      </c>
+      <c r="E151" t="n">
+        <v>16170</v>
+      </c>
+      <c r="F151" t="n">
+        <v>508.0259</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-429.3280912313429</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>16230</v>
+      </c>
+      <c r="C152" t="n">
+        <v>16230</v>
+      </c>
+      <c r="D152" t="n">
+        <v>16230</v>
+      </c>
+      <c r="E152" t="n">
+        <v>16230</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>-428.3280912313429</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>16300</v>
+      </c>
+      <c r="C153" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D153" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E153" t="n">
+        <v>16300</v>
+      </c>
+      <c r="F153" t="n">
+        <v>6.9747</v>
+      </c>
+      <c r="G153" t="n">
+        <v>-421.3533912313429</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>16350</v>
+      </c>
+      <c r="C154" t="n">
+        <v>16430</v>
+      </c>
+      <c r="D154" t="n">
+        <v>16430</v>
+      </c>
+      <c r="E154" t="n">
+        <v>16350</v>
+      </c>
+      <c r="F154" t="n">
+        <v>301.262</v>
+      </c>
+      <c r="G154" t="n">
+        <v>-120.0913912313429</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>16440</v>
+      </c>
+      <c r="C155" t="n">
+        <v>16450</v>
+      </c>
+      <c r="D155" t="n">
+        <v>16450</v>
+      </c>
+      <c r="E155" t="n">
+        <v>16440</v>
+      </c>
+      <c r="F155" t="n">
+        <v>110.7311</v>
+      </c>
+      <c r="G155" t="n">
+        <v>-9.360291231342927</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>16430</v>
+      </c>
+      <c r="C156" t="n">
+        <v>16430</v>
+      </c>
+      <c r="D156" t="n">
+        <v>16430</v>
+      </c>
+      <c r="E156" t="n">
+        <v>16430</v>
+      </c>
+      <c r="F156" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-23.57029123134293</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>16430</v>
+      </c>
+      <c r="C157" t="n">
+        <v>16430</v>
+      </c>
+      <c r="D157" t="n">
+        <v>16440</v>
+      </c>
+      <c r="E157" t="n">
+        <v>16430</v>
+      </c>
+      <c r="F157" t="n">
+        <v>204.2924</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-23.57029123134293</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>16440</v>
+      </c>
+      <c r="C158" t="n">
+        <v>16440</v>
+      </c>
+      <c r="D158" t="n">
+        <v>16440</v>
+      </c>
+      <c r="E158" t="n">
+        <v>16440</v>
+      </c>
+      <c r="F158" t="n">
+        <v>4.7554</v>
+      </c>
+      <c r="G158" t="n">
+        <v>-18.81489123134293</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>16440</v>
+      </c>
+      <c r="C159" t="n">
+        <v>16480</v>
+      </c>
+      <c r="D159" t="n">
+        <v>16480</v>
+      </c>
+      <c r="E159" t="n">
+        <v>16440</v>
+      </c>
+      <c r="F159" t="n">
+        <v>295.868</v>
+      </c>
+      <c r="G159" t="n">
+        <v>277.0531087686571</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>16470</v>
+      </c>
+      <c r="C160" t="n">
+        <v>16480</v>
+      </c>
+      <c r="D160" t="n">
+        <v>16480</v>
+      </c>
+      <c r="E160" t="n">
+        <v>16470</v>
+      </c>
+      <c r="F160" t="n">
+        <v>66.6345</v>
+      </c>
+      <c r="G160" t="n">
+        <v>277.0531087686571</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>16470</v>
+      </c>
+      <c r="C161" t="n">
+        <v>16400</v>
+      </c>
+      <c r="D161" t="n">
+        <v>16470</v>
+      </c>
+      <c r="E161" t="n">
+        <v>16400</v>
+      </c>
+      <c r="F161" t="n">
+        <v>164.1233</v>
+      </c>
+      <c r="G161" t="n">
+        <v>112.9298087686571</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>16380</v>
+      </c>
+      <c r="C162" t="n">
+        <v>16380</v>
+      </c>
+      <c r="D162" t="n">
+        <v>16380</v>
+      </c>
+      <c r="E162" t="n">
+        <v>16380</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.6375999999999999</v>
+      </c>
+      <c r="G162" t="n">
+        <v>112.2922087686571</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>16380</v>
+      </c>
+      <c r="C163" t="n">
+        <v>16380</v>
+      </c>
+      <c r="D163" t="n">
+        <v>16380</v>
+      </c>
+      <c r="E163" t="n">
+        <v>16380</v>
+      </c>
+      <c r="F163" t="n">
+        <v>59.7417</v>
+      </c>
+      <c r="G163" t="n">
+        <v>112.2922087686571</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>16370</v>
+      </c>
+      <c r="C164" t="n">
+        <v>16370</v>
+      </c>
+      <c r="D164" t="n">
+        <v>16370</v>
+      </c>
+      <c r="E164" t="n">
+        <v>16370</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4.8729</v>
+      </c>
+      <c r="G164" t="n">
+        <v>107.4193087686571</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>16370</v>
+      </c>
+      <c r="C165" t="n">
+        <v>16370</v>
+      </c>
+      <c r="D165" t="n">
+        <v>16370</v>
+      </c>
+      <c r="E165" t="n">
+        <v>16370</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.1144</v>
+      </c>
+      <c r="G165" t="n">
+        <v>107.4193087686571</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>16350</v>
+      </c>
+      <c r="C166" t="n">
+        <v>16350</v>
+      </c>
+      <c r="D166" t="n">
+        <v>16350</v>
+      </c>
+      <c r="E166" t="n">
+        <v>16350</v>
+      </c>
+      <c r="F166" t="n">
+        <v>7.1829</v>
+      </c>
+      <c r="G166" t="n">
+        <v>100.2364087686571</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>16350</v>
+      </c>
+      <c r="C167" t="n">
+        <v>16440</v>
+      </c>
+      <c r="D167" t="n">
+        <v>16440</v>
+      </c>
+      <c r="E167" t="n">
+        <v>16310</v>
+      </c>
+      <c r="F167" t="n">
+        <v>223.6150644768856</v>
+      </c>
+      <c r="G167" t="n">
+        <v>323.8514732455426</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>16330</v>
+      </c>
+      <c r="C168" t="n">
+        <v>16320</v>
+      </c>
+      <c r="D168" t="n">
+        <v>16330</v>
+      </c>
+      <c r="E168" t="n">
+        <v>16320</v>
+      </c>
+      <c r="F168" t="n">
+        <v>101.8811</v>
+      </c>
+      <c r="G168" t="n">
+        <v>221.9703732455426</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>16430</v>
+      </c>
+      <c r="C169" t="n">
+        <v>16430</v>
+      </c>
+      <c r="D169" t="n">
+        <v>16430</v>
+      </c>
+      <c r="E169" t="n">
+        <v>16430</v>
+      </c>
+      <c r="F169" t="n">
+        <v>78.8493</v>
+      </c>
+      <c r="G169" t="n">
+        <v>300.8196732455426</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>16430</v>
+      </c>
+      <c r="C170" t="n">
+        <v>16430</v>
+      </c>
+      <c r="D170" t="n">
+        <v>16430</v>
+      </c>
+      <c r="E170" t="n">
+        <v>16430</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6.1506</v>
+      </c>
+      <c r="G170" t="n">
+        <v>300.8196732455426</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>16430</v>
+      </c>
+      <c r="C171" t="n">
+        <v>16430</v>
+      </c>
+      <c r="D171" t="n">
+        <v>16430</v>
+      </c>
+      <c r="E171" t="n">
+        <v>16430</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="G171" t="n">
+        <v>300.8196732455426</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>16300</v>
+      </c>
+      <c r="C172" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D172" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E172" t="n">
+        <v>16300</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.6605</v>
+      </c>
+      <c r="G172" t="n">
+        <v>300.1591732455426</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>16300</v>
+      </c>
+      <c r="C173" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D173" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E173" t="n">
+        <v>16300</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2.5267</v>
+      </c>
+      <c r="G173" t="n">
+        <v>300.1591732455426</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>16270</v>
+      </c>
+      <c r="C174" t="n">
+        <v>16230</v>
+      </c>
+      <c r="D174" t="n">
+        <v>16270</v>
+      </c>
+      <c r="E174" t="n">
+        <v>16230</v>
+      </c>
+      <c r="F174" t="n">
+        <v>261.4038</v>
+      </c>
+      <c r="G174" t="n">
+        <v>38.75537324554261</v>
+      </c>
+      <c r="H174" t="n">
         <v>2</v>
       </c>
-      <c r="I138" t="n">
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>16220</v>
+      </c>
+      <c r="C175" t="n">
+        <v>16210</v>
+      </c>
+      <c r="D175" t="n">
+        <v>16220</v>
+      </c>
+      <c r="E175" t="n">
+        <v>16210</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7.5184</v>
+      </c>
+      <c r="G175" t="n">
+        <v>31.23697324554261</v>
+      </c>
+      <c r="H175" t="n">
+        <v>2</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>16130</v>
+      </c>
+      <c r="C176" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D176" t="n">
+        <v>16130</v>
+      </c>
+      <c r="E176" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F176" t="n">
+        <v>957.1923</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-925.9553267544575</v>
+      </c>
+      <c r="H176" t="n">
+        <v>2</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C177" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D177" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E177" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F177" t="n">
+        <v>245.8709</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-1171.826226754457</v>
+      </c>
+      <c r="H177" t="n">
+        <v>2</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C178" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D178" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E178" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>576.2717</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-1748.097926754457</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C179" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D179" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-1748.097926754457</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C180" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D180" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E180" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F180" t="n">
+        <v>4.2682</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-1743.829726754457</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C181" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D181" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E181" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>163.604</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-1907.433726754457</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C182" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D182" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>382.29</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-1907.433726754457</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C183" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D183" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E183" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>237.2109</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-1670.222826754457</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C184" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D184" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E184" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>299.6543</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-1969.877126754457</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
         <v>16030</v>
       </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
+      <c r="C185" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D185" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E185" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F185" t="n">
+        <v>236.9397</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-1732.937426754457</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C186" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D186" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E186" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F186" t="n">
+        <v>15</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-1732.937426754457</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C187" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D187" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E187" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F187" t="n">
+        <v>20</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-1732.937426754457</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C188" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D188" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E188" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F188" t="n">
+        <v>306.9596</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-1732.937426754457</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>16020</v>
+      </c>
+      <c r="C189" t="n">
+        <v>16020</v>
+      </c>
+      <c r="D189" t="n">
+        <v>16020</v>
+      </c>
+      <c r="E189" t="n">
+        <v>16020</v>
+      </c>
+      <c r="F189" t="n">
+        <v>50</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-1682.937426754457</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>16030</v>
+      </c>
+      <c r="C190" t="n">
+        <v>16030</v>
+      </c>
+      <c r="D190" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E190" t="n">
+        <v>16030</v>
+      </c>
+      <c r="F190" t="n">
+        <v>29.9999</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-1652.937526754457</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>16040</v>
+      </c>
+      <c r="C191" t="n">
+        <v>16040</v>
+      </c>
+      <c r="D191" t="n">
+        <v>16040</v>
+      </c>
+      <c r="E191" t="n">
+        <v>16040</v>
+      </c>
+      <c r="F191" t="n">
+        <v>46.7035</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-1606.234026754457</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>16040</v>
+      </c>
+      <c r="C192" t="n">
+        <v>16030</v>
+      </c>
+      <c r="D192" t="n">
+        <v>16040</v>
+      </c>
+      <c r="E192" t="n">
+        <v>16030</v>
+      </c>
+      <c r="F192" t="n">
+        <v>21.2282</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-1627.462226754457</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>16030</v>
+      </c>
+      <c r="C193" t="n">
+        <v>16030</v>
+      </c>
+      <c r="D193" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E193" t="n">
+        <v>16030</v>
+      </c>
+      <c r="F193" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-1627.462226754457</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>16030</v>
+      </c>
+      <c r="C194" t="n">
+        <v>16010</v>
+      </c>
+      <c r="D194" t="n">
+        <v>16030</v>
+      </c>
+      <c r="E194" t="n">
+        <v>16010</v>
+      </c>
+      <c r="F194" t="n">
+        <v>23.2377</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-1650.699926754457</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>16010</v>
+      </c>
+      <c r="C195" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D195" t="n">
+        <v>16010</v>
+      </c>
+      <c r="E195" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F195" t="n">
+        <v>350.1508</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-2000.850726754457</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C196" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E196" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F196" t="n">
+        <v>46.2288</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-2000.850726754457</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C197" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D197" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E197" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F197" t="n">
+        <v>2.3429</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-2000.850726754457</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C198" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D198" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E198" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.9475</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-2000.850726754457</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C199" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D199" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E199" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F199" t="n">
+        <v>125</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-2000.850726754457</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C200" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D200" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E200" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F200" t="n">
+        <v>9.3803</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-2000.850726754457</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C201" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D201" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E201" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F201" t="n">
+        <v>10.0988</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-1990.751926754457</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C202" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D202" t="n">
+        <v>16000</v>
+      </c>
+      <c r="E202" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4.8205</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-1990.751926754457</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>16110</v>
+      </c>
+      <c r="C203" t="n">
+        <v>16110</v>
+      </c>
+      <c r="D203" t="n">
+        <v>16110</v>
+      </c>
+      <c r="E203" t="n">
+        <v>16110</v>
+      </c>
+      <c r="F203" t="n">
+        <v>10.1045</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-1980.647426754457</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>15980</v>
+      </c>
+      <c r="C204" t="n">
+        <v>15980</v>
+      </c>
+      <c r="D204" t="n">
+        <v>15980</v>
+      </c>
+      <c r="E204" t="n">
+        <v>15980</v>
+      </c>
+      <c r="F204" t="n">
+        <v>120</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-2100.647426754457</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>16100</v>
+      </c>
+      <c r="C205" t="n">
+        <v>16300</v>
+      </c>
+      <c r="D205" t="n">
+        <v>16300</v>
+      </c>
+      <c r="E205" t="n">
+        <v>16100</v>
+      </c>
+      <c r="F205" t="n">
+        <v>109.5</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-1991.147426754457</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>16080</v>
+      </c>
+      <c r="C206" t="n">
+        <v>16080</v>
+      </c>
+      <c r="D206" t="n">
+        <v>16090</v>
+      </c>
+      <c r="E206" t="n">
+        <v>16080</v>
+      </c>
+      <c r="F206" t="n">
+        <v>29.2342</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-2020.381626754457</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>16080</v>
+      </c>
+      <c r="C207" t="n">
+        <v>16060</v>
+      </c>
+      <c r="D207" t="n">
+        <v>16080</v>
+      </c>
+      <c r="E207" t="n">
+        <v>16060</v>
+      </c>
+      <c r="F207" t="n">
+        <v>56.8965</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-2077.278126754457</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>16080</v>
+      </c>
+      <c r="C208" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D208" t="n">
+        <v>16080</v>
+      </c>
+      <c r="E208" t="n">
+        <v>16070</v>
+      </c>
+      <c r="F208" t="n">
+        <v>249.5069</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-1827.771226754457</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>16080</v>
+      </c>
+      <c r="C209" t="n">
+        <v>16080</v>
+      </c>
+      <c r="D209" t="n">
+        <v>16080</v>
+      </c>
+      <c r="E209" t="n">
+        <v>16080</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.08069999999999999</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-1827.690526754457</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C210" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D210" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E210" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F210" t="n">
+        <v>171.4199</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-1656.270626754457</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C211" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D211" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E211" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.0609</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-1656.270626754457</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C212" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D212" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E212" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3.561</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-1656.270626754457</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C213" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D213" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E213" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27.7002</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-1656.270626754457</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C214" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D214" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E214" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F214" t="n">
+        <v>36.991</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-1656.270626754457</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>16100</v>
+      </c>
+      <c r="C215" t="n">
+        <v>16100</v>
+      </c>
+      <c r="D215" t="n">
+        <v>16100</v>
+      </c>
+      <c r="E215" t="n">
+        <v>16100</v>
+      </c>
+      <c r="F215" t="n">
+        <v>4</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-1660.270626754457</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>16170</v>
+      </c>
+      <c r="C216" t="n">
+        <v>16170</v>
+      </c>
+      <c r="D216" t="n">
+        <v>16170</v>
+      </c>
+      <c r="E216" t="n">
+        <v>16170</v>
+      </c>
+      <c r="F216" t="n">
+        <v>218.2125</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-1442.058126754457</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C217" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D217" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E217" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F217" t="n">
+        <v>13.63</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-1455.688126754457</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>16130</v>
+      </c>
+      <c r="C218" t="n">
+        <v>16130</v>
+      </c>
+      <c r="D218" t="n">
+        <v>16130</v>
+      </c>
+      <c r="E218" t="n">
+        <v>16130</v>
+      </c>
+      <c r="F218" t="n">
+        <v>2.1709</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-1457.859026754457</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C219" t="n">
+        <v>16170</v>
+      </c>
+      <c r="D219" t="n">
+        <v>16170</v>
+      </c>
+      <c r="E219" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F219" t="n">
+        <v>21.8055</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-1436.053526754457</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>16150</v>
+      </c>
+      <c r="C220" t="n">
+        <v>16150</v>
+      </c>
+      <c r="D220" t="n">
+        <v>16150</v>
+      </c>
+      <c r="E220" t="n">
+        <v>16150</v>
+      </c>
+      <c r="F220" t="n">
+        <v>3</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-1439.053526754457</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>16170</v>
+      </c>
+      <c r="C221" t="n">
+        <v>16170</v>
+      </c>
+      <c r="D221" t="n">
+        <v>16170</v>
+      </c>
+      <c r="E221" t="n">
+        <v>16170</v>
+      </c>
+      <c r="F221" t="n">
+        <v>2.9813</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-1436.072226754457</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C222" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D222" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E222" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F222" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-1442.882226754457</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>16170</v>
+      </c>
+      <c r="C223" t="n">
+        <v>16170</v>
+      </c>
+      <c r="D223" t="n">
+        <v>16170</v>
+      </c>
+      <c r="E223" t="n">
+        <v>16170</v>
+      </c>
+      <c r="F223" t="n">
+        <v>3.2395</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-1439.642726754457</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C224" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D224" t="n">
+        <v>16160</v>
+      </c>
+      <c r="E224" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F224" t="n">
+        <v>13</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-1452.642726754457</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>16170</v>
+      </c>
+      <c r="C225" t="n">
+        <v>16170</v>
+      </c>
+      <c r="D225" t="n">
+        <v>16170</v>
+      </c>
+      <c r="E225" t="n">
+        <v>16170</v>
+      </c>
+      <c r="F225" t="n">
+        <v>50.015</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-1402.627726754457</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>16160</v>
+      </c>
+      <c r="C226" t="n">
+        <v>16160</v>
+      </c>
+      <c r="D226" t="n">
+        <v>16170</v>
+      </c>
+      <c r="E226" t="n">
+        <v>16160</v>
+      </c>
+      <c r="F226" t="n">
+        <v>63.428</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-1466.055726754457</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>16150</v>
+      </c>
+      <c r="C227" t="n">
+        <v>16150</v>
+      </c>
+      <c r="D227" t="n">
+        <v>16150</v>
+      </c>
+      <c r="E227" t="n">
+        <v>16150</v>
+      </c>
+      <c r="F227" t="n">
+        <v>14.7419</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-1480.797626754457</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>16170</v>
+      </c>
+      <c r="C228" t="n">
+        <v>16170</v>
+      </c>
+      <c r="D228" t="n">
+        <v>16170</v>
+      </c>
+      <c r="E228" t="n">
+        <v>16170</v>
+      </c>
+      <c r="F228" t="n">
+        <v>11.31725417439703</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-1469.48037258006</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>16120</v>
+      </c>
+      <c r="C229" t="n">
+        <v>16110</v>
+      </c>
+      <c r="D229" t="n">
+        <v>16120</v>
+      </c>
+      <c r="E229" t="n">
+        <v>16110</v>
+      </c>
+      <c r="F229" t="n">
+        <v>41.9972</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-1511.47757258006</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C230" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D230" t="n">
+        <v>16070</v>
+      </c>
+      <c r="E230" t="n">
+        <v>16070</v>
+      </c>
+      <c r="F230" t="n">
+        <v>40</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-1551.47757258006</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>16120</v>
+      </c>
+      <c r="C231" t="n">
+        <v>16120</v>
+      </c>
+      <c r="D231" t="n">
+        <v>16120</v>
+      </c>
+      <c r="E231" t="n">
+        <v>16120</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0.1861042183622829</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-1551.291468361698</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C232" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D232" t="n">
+        <v>16070</v>
+      </c>
+      <c r="E232" t="n">
+        <v>16070</v>
+      </c>
+      <c r="F232" t="n">
+        <v>5.5783</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-1556.869768361698</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="D233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="E233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="F233" t="n">
+        <v>7.6143</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-1556.869768361698</v>
+      </c>
+      <c r="H233" t="n">
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>16070</v>
+      </c>
+      <c r="C234" t="n">
+        <v>16000</v>
+      </c>
+      <c r="D234" t="n">
+        <v>16070</v>
+      </c>
+      <c r="E234" t="n">
+        <v>16000</v>
+      </c>
+      <c r="F234" t="n">
+        <v>107</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-1663.869768361698</v>
+      </c>
+      <c r="H234" t="n">
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J234" t="n">
+        <v>16070</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>16030</v>
-      </c>
-      <c r="C139" t="n">
-        <v>16030</v>
-      </c>
-      <c r="D139" t="n">
-        <v>16030</v>
-      </c>
-      <c r="E139" t="n">
-        <v>16030</v>
-      </c>
-      <c r="F139" t="n">
-        <v>3</v>
-      </c>
-      <c r="G139" t="n">
-        <v>-841.8955403290404</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C140" t="n">
-        <v>16110</v>
-      </c>
-      <c r="D140" t="n">
-        <v>16110</v>
-      </c>
-      <c r="E140" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F140" t="n">
-        <v>149.6075490976976</v>
-      </c>
-      <c r="G140" t="n">
-        <v>-692.2879912313427</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>16030</v>
-      </c>
-      <c r="C141" t="n">
-        <v>16030</v>
-      </c>
-      <c r="D141" t="n">
-        <v>16030</v>
-      </c>
-      <c r="E141" t="n">
-        <v>16030</v>
-      </c>
-      <c r="F141" t="n">
-        <v>74.7308</v>
-      </c>
-      <c r="G141" t="n">
-        <v>-767.0187912313428</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C142" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D142" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E142" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F142" t="n">
-        <v>5.6673</v>
-      </c>
-      <c r="G142" t="n">
-        <v>-761.3514912313428</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C143" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D143" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E143" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F143" t="n">
-        <v>121.4066</v>
-      </c>
-      <c r="G143" t="n">
-        <v>-882.7580912313429</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C144" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D144" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E144" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F144" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="G144" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C145" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D145" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E145" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F145" t="n">
-        <v>5.2352</v>
-      </c>
-      <c r="G145" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C146" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D146" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E146" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F146" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="G146" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C147" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D147" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E147" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F147" t="n">
-        <v>13.1854</v>
-      </c>
-      <c r="G147" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>16060</v>
-      </c>
-      <c r="C148" t="n">
-        <v>16060</v>
-      </c>
-      <c r="D148" t="n">
-        <v>16060</v>
-      </c>
-      <c r="E148" t="n">
-        <v>16060</v>
-      </c>
-      <c r="F148" t="n">
-        <v>3</v>
-      </c>
-      <c r="G148" t="n">
-        <v>-870.6480912313428</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>16050</v>
-      </c>
-      <c r="C149" t="n">
-        <v>16050</v>
-      </c>
-      <c r="D149" t="n">
-        <v>16050</v>
-      </c>
-      <c r="E149" t="n">
-        <v>16050</v>
-      </c>
-      <c r="F149" t="n">
-        <v>66.7059</v>
-      </c>
-      <c r="G149" t="n">
-        <v>-937.3539912313429</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C150" t="n">
-        <v>16050</v>
-      </c>
-      <c r="D150" t="n">
-        <v>16140</v>
-      </c>
-      <c r="E150" t="n">
-        <v>16050</v>
-      </c>
-      <c r="F150" t="n">
-        <v>910.5780999999999</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-937.3539912313429</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C151" t="n">
-        <v>16210</v>
-      </c>
-      <c r="D151" t="n">
-        <v>16210</v>
-      </c>
-      <c r="E151" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F151" t="n">
-        <v>508.0259</v>
-      </c>
-      <c r="G151" t="n">
-        <v>-429.3280912313429</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>16230</v>
-      </c>
-      <c r="C152" t="n">
-        <v>16230</v>
-      </c>
-      <c r="D152" t="n">
-        <v>16230</v>
-      </c>
-      <c r="E152" t="n">
-        <v>16230</v>
-      </c>
-      <c r="F152" t="n">
-        <v>1</v>
-      </c>
-      <c r="G152" t="n">
-        <v>-428.3280912313429</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>16300</v>
-      </c>
-      <c r="C153" t="n">
-        <v>16300</v>
-      </c>
-      <c r="D153" t="n">
-        <v>16300</v>
-      </c>
-      <c r="E153" t="n">
-        <v>16300</v>
-      </c>
-      <c r="F153" t="n">
-        <v>6.9747</v>
-      </c>
-      <c r="G153" t="n">
-        <v>-421.3533912313429</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>16350</v>
-      </c>
-      <c r="C154" t="n">
-        <v>16430</v>
-      </c>
-      <c r="D154" t="n">
-        <v>16430</v>
-      </c>
-      <c r="E154" t="n">
-        <v>16350</v>
-      </c>
-      <c r="F154" t="n">
-        <v>301.262</v>
-      </c>
-      <c r="G154" t="n">
-        <v>-120.0913912313429</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>16440</v>
-      </c>
-      <c r="C155" t="n">
-        <v>16450</v>
-      </c>
-      <c r="D155" t="n">
-        <v>16450</v>
-      </c>
-      <c r="E155" t="n">
-        <v>16440</v>
-      </c>
-      <c r="F155" t="n">
-        <v>110.7311</v>
-      </c>
-      <c r="G155" t="n">
-        <v>-9.360291231342927</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>16430</v>
-      </c>
-      <c r="C156" t="n">
-        <v>16430</v>
-      </c>
-      <c r="D156" t="n">
-        <v>16430</v>
-      </c>
-      <c r="E156" t="n">
-        <v>16430</v>
-      </c>
-      <c r="F156" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="G156" t="n">
-        <v>-23.57029123134293</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>16430</v>
-      </c>
-      <c r="C157" t="n">
-        <v>16430</v>
-      </c>
-      <c r="D157" t="n">
-        <v>16440</v>
-      </c>
-      <c r="E157" t="n">
-        <v>16430</v>
-      </c>
-      <c r="F157" t="n">
-        <v>204.2924</v>
-      </c>
-      <c r="G157" t="n">
-        <v>-23.57029123134293</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>16440</v>
-      </c>
-      <c r="C158" t="n">
-        <v>16440</v>
-      </c>
-      <c r="D158" t="n">
-        <v>16440</v>
-      </c>
-      <c r="E158" t="n">
-        <v>16440</v>
-      </c>
-      <c r="F158" t="n">
-        <v>4.7554</v>
-      </c>
-      <c r="G158" t="n">
-        <v>-18.81489123134293</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>16440</v>
-      </c>
-      <c r="C159" t="n">
-        <v>16480</v>
-      </c>
-      <c r="D159" t="n">
-        <v>16480</v>
-      </c>
-      <c r="E159" t="n">
-        <v>16440</v>
-      </c>
-      <c r="F159" t="n">
-        <v>295.868</v>
-      </c>
-      <c r="G159" t="n">
-        <v>277.0531087686571</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>16470</v>
-      </c>
-      <c r="C160" t="n">
-        <v>16480</v>
-      </c>
-      <c r="D160" t="n">
-        <v>16480</v>
-      </c>
-      <c r="E160" t="n">
-        <v>16470</v>
-      </c>
-      <c r="F160" t="n">
-        <v>66.6345</v>
-      </c>
-      <c r="G160" t="n">
-        <v>277.0531087686571</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>16470</v>
-      </c>
-      <c r="C161" t="n">
-        <v>16400</v>
-      </c>
-      <c r="D161" t="n">
-        <v>16470</v>
-      </c>
-      <c r="E161" t="n">
-        <v>16400</v>
-      </c>
-      <c r="F161" t="n">
-        <v>164.1233</v>
-      </c>
-      <c r="G161" t="n">
-        <v>112.9298087686571</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>16380</v>
-      </c>
-      <c r="C162" t="n">
-        <v>16380</v>
-      </c>
-      <c r="D162" t="n">
-        <v>16380</v>
-      </c>
-      <c r="E162" t="n">
-        <v>16380</v>
-      </c>
-      <c r="F162" t="n">
-        <v>0.6375999999999999</v>
-      </c>
-      <c r="G162" t="n">
-        <v>112.2922087686571</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>16380</v>
-      </c>
-      <c r="C163" t="n">
-        <v>16380</v>
-      </c>
-      <c r="D163" t="n">
-        <v>16380</v>
-      </c>
-      <c r="E163" t="n">
-        <v>16380</v>
-      </c>
-      <c r="F163" t="n">
-        <v>59.7417</v>
-      </c>
-      <c r="G163" t="n">
-        <v>112.2922087686571</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>16370</v>
-      </c>
-      <c r="C164" t="n">
-        <v>16370</v>
-      </c>
-      <c r="D164" t="n">
-        <v>16370</v>
-      </c>
-      <c r="E164" t="n">
-        <v>16370</v>
-      </c>
-      <c r="F164" t="n">
-        <v>4.8729</v>
-      </c>
-      <c r="G164" t="n">
-        <v>107.4193087686571</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>16370</v>
-      </c>
-      <c r="C165" t="n">
-        <v>16370</v>
-      </c>
-      <c r="D165" t="n">
-        <v>16370</v>
-      </c>
-      <c r="E165" t="n">
-        <v>16370</v>
-      </c>
-      <c r="F165" t="n">
-        <v>0.1144</v>
-      </c>
-      <c r="G165" t="n">
-        <v>107.4193087686571</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>16350</v>
-      </c>
-      <c r="C166" t="n">
-        <v>16350</v>
-      </c>
-      <c r="D166" t="n">
-        <v>16350</v>
-      </c>
-      <c r="E166" t="n">
-        <v>16350</v>
-      </c>
-      <c r="F166" t="n">
-        <v>7.1829</v>
-      </c>
-      <c r="G166" t="n">
-        <v>100.2364087686571</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>16350</v>
-      </c>
-      <c r="C167" t="n">
-        <v>16440</v>
-      </c>
-      <c r="D167" t="n">
-        <v>16440</v>
-      </c>
-      <c r="E167" t="n">
-        <v>16310</v>
-      </c>
-      <c r="F167" t="n">
-        <v>223.6150644768856</v>
-      </c>
-      <c r="G167" t="n">
-        <v>323.8514732455426</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>16330</v>
-      </c>
-      <c r="C168" t="n">
-        <v>16320</v>
-      </c>
-      <c r="D168" t="n">
-        <v>16330</v>
-      </c>
-      <c r="E168" t="n">
-        <v>16320</v>
-      </c>
-      <c r="F168" t="n">
-        <v>101.8811</v>
-      </c>
-      <c r="G168" t="n">
-        <v>221.9703732455426</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>16430</v>
-      </c>
-      <c r="C169" t="n">
-        <v>16430</v>
-      </c>
-      <c r="D169" t="n">
-        <v>16430</v>
-      </c>
-      <c r="E169" t="n">
-        <v>16430</v>
-      </c>
-      <c r="F169" t="n">
-        <v>78.8493</v>
-      </c>
-      <c r="G169" t="n">
-        <v>300.8196732455426</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>16430</v>
-      </c>
-      <c r="C170" t="n">
-        <v>16430</v>
-      </c>
-      <c r="D170" t="n">
-        <v>16430</v>
-      </c>
-      <c r="E170" t="n">
-        <v>16430</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6.1506</v>
-      </c>
-      <c r="G170" t="n">
-        <v>300.8196732455426</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>16430</v>
-      </c>
-      <c r="C171" t="n">
-        <v>16430</v>
-      </c>
-      <c r="D171" t="n">
-        <v>16430</v>
-      </c>
-      <c r="E171" t="n">
-        <v>16430</v>
-      </c>
-      <c r="F171" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="G171" t="n">
-        <v>300.8196732455426</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>16300</v>
-      </c>
-      <c r="C172" t="n">
-        <v>16300</v>
-      </c>
-      <c r="D172" t="n">
-        <v>16300</v>
-      </c>
-      <c r="E172" t="n">
-        <v>16300</v>
-      </c>
-      <c r="F172" t="n">
-        <v>0.6605</v>
-      </c>
-      <c r="G172" t="n">
-        <v>300.1591732455426</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>16300</v>
-      </c>
-      <c r="C173" t="n">
-        <v>16300</v>
-      </c>
-      <c r="D173" t="n">
-        <v>16300</v>
-      </c>
-      <c r="E173" t="n">
-        <v>16300</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2.5267</v>
-      </c>
-      <c r="G173" t="n">
-        <v>300.1591732455426</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>16270</v>
-      </c>
-      <c r="C174" t="n">
-        <v>16230</v>
-      </c>
-      <c r="D174" t="n">
-        <v>16270</v>
-      </c>
-      <c r="E174" t="n">
-        <v>16230</v>
-      </c>
-      <c r="F174" t="n">
-        <v>261.4038</v>
-      </c>
-      <c r="G174" t="n">
-        <v>38.75537324554261</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>16220</v>
-      </c>
-      <c r="C175" t="n">
-        <v>16210</v>
-      </c>
-      <c r="D175" t="n">
-        <v>16220</v>
-      </c>
-      <c r="E175" t="n">
-        <v>16210</v>
-      </c>
-      <c r="F175" t="n">
-        <v>7.5184</v>
-      </c>
-      <c r="G175" t="n">
-        <v>31.23697324554261</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>16130</v>
-      </c>
-      <c r="C176" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D176" t="n">
-        <v>16130</v>
-      </c>
-      <c r="E176" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F176" t="n">
-        <v>957.1923</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-925.9553267544575</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C177" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D177" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E177" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F177" t="n">
-        <v>245.8709</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-1171.826226754457</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C178" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D178" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E178" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F178" t="n">
-        <v>576.2717</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-1748.097926754457</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C179" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D179" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E179" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F179" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-1748.097926754457</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C180" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D180" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E180" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F180" t="n">
-        <v>4.2682</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-1743.829726754457</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C181" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D181" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E181" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F181" t="n">
-        <v>163.604</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-1907.433726754457</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C182" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D182" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E182" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F182" t="n">
-        <v>382.29</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-1907.433726754457</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C183" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D183" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E183" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F183" t="n">
-        <v>237.2109</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-1670.222826754457</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C184" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D184" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E184" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F184" t="n">
-        <v>299.6543</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-1969.877126754457</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>16030</v>
-      </c>
-      <c r="C185" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D185" t="n">
-        <v>16030</v>
-      </c>
-      <c r="E185" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F185" t="n">
-        <v>236.9397</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C186" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D186" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E186" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F186" t="n">
-        <v>15</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C187" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D187" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E187" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F187" t="n">
-        <v>20</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C188" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D188" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E188" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F188" t="n">
-        <v>306.9596</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>16020</v>
-      </c>
-      <c r="C189" t="n">
-        <v>16020</v>
-      </c>
-      <c r="D189" t="n">
-        <v>16020</v>
-      </c>
-      <c r="E189" t="n">
-        <v>16020</v>
-      </c>
-      <c r="F189" t="n">
-        <v>50</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-1682.937426754457</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>16030</v>
-      </c>
-      <c r="C190" t="n">
-        <v>16030</v>
-      </c>
-      <c r="D190" t="n">
-        <v>16030</v>
-      </c>
-      <c r="E190" t="n">
-        <v>16030</v>
-      </c>
-      <c r="F190" t="n">
-        <v>29.9999</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-1652.937526754457</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>16040</v>
-      </c>
-      <c r="C191" t="n">
-        <v>16040</v>
-      </c>
-      <c r="D191" t="n">
-        <v>16040</v>
-      </c>
-      <c r="E191" t="n">
-        <v>16040</v>
-      </c>
-      <c r="F191" t="n">
-        <v>46.7035</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-1606.234026754457</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>16040</v>
-      </c>
-      <c r="C192" t="n">
-        <v>16030</v>
-      </c>
-      <c r="D192" t="n">
-        <v>16040</v>
-      </c>
-      <c r="E192" t="n">
-        <v>16030</v>
-      </c>
-      <c r="F192" t="n">
-        <v>21.2282</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-1627.462226754457</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>16030</v>
-      </c>
-      <c r="C193" t="n">
-        <v>16030</v>
-      </c>
-      <c r="D193" t="n">
-        <v>16030</v>
-      </c>
-      <c r="E193" t="n">
-        <v>16030</v>
-      </c>
-      <c r="F193" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-1627.462226754457</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>16030</v>
-      </c>
-      <c r="C194" t="n">
-        <v>16010</v>
-      </c>
-      <c r="D194" t="n">
-        <v>16030</v>
-      </c>
-      <c r="E194" t="n">
-        <v>16010</v>
-      </c>
-      <c r="F194" t="n">
-        <v>23.2377</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-1650.699926754457</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>16010</v>
-      </c>
-      <c r="C195" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D195" t="n">
-        <v>16010</v>
-      </c>
-      <c r="E195" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F195" t="n">
-        <v>350.1508</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C196" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D196" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E196" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F196" t="n">
-        <v>46.2288</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C197" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D197" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E197" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F197" t="n">
-        <v>2.3429</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C198" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D198" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E198" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F198" t="n">
-        <v>0.9475</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C199" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D199" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E199" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F199" t="n">
-        <v>125</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C200" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D200" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E200" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F200" t="n">
-        <v>9.3803</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C201" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D201" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E201" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F201" t="n">
-        <v>10.0988</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-1990.751926754457</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>16000</v>
-      </c>
-      <c r="C202" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D202" t="n">
-        <v>16000</v>
-      </c>
-      <c r="E202" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F202" t="n">
-        <v>4.8205</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-1990.751926754457</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>16110</v>
-      </c>
-      <c r="C203" t="n">
-        <v>16110</v>
-      </c>
-      <c r="D203" t="n">
-        <v>16110</v>
-      </c>
-      <c r="E203" t="n">
-        <v>16110</v>
-      </c>
-      <c r="F203" t="n">
-        <v>10.1045</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-1980.647426754457</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>15980</v>
-      </c>
-      <c r="C204" t="n">
-        <v>15980</v>
-      </c>
-      <c r="D204" t="n">
-        <v>15980</v>
-      </c>
-      <c r="E204" t="n">
-        <v>15980</v>
-      </c>
-      <c r="F204" t="n">
-        <v>120</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-2100.647426754457</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>16100</v>
-      </c>
-      <c r="C205" t="n">
-        <v>16300</v>
-      </c>
-      <c r="D205" t="n">
-        <v>16300</v>
-      </c>
-      <c r="E205" t="n">
-        <v>16100</v>
-      </c>
-      <c r="F205" t="n">
-        <v>109.5</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-1991.147426754457</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C206" t="n">
-        <v>16080</v>
-      </c>
-      <c r="D206" t="n">
-        <v>16090</v>
-      </c>
-      <c r="E206" t="n">
-        <v>16080</v>
-      </c>
-      <c r="F206" t="n">
-        <v>29.2342</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-2020.381626754457</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C207" t="n">
-        <v>16060</v>
-      </c>
-      <c r="D207" t="n">
-        <v>16080</v>
-      </c>
-      <c r="E207" t="n">
-        <v>16060</v>
-      </c>
-      <c r="F207" t="n">
-        <v>56.8965</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-2077.278126754457</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C208" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D208" t="n">
-        <v>16080</v>
-      </c>
-      <c r="E208" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F208" t="n">
-        <v>249.5069</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-1827.771226754457</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>16080</v>
-      </c>
-      <c r="C209" t="n">
-        <v>16080</v>
-      </c>
-      <c r="D209" t="n">
-        <v>16080</v>
-      </c>
-      <c r="E209" t="n">
-        <v>16080</v>
-      </c>
-      <c r="F209" t="n">
-        <v>0.08069999999999999</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-1827.690526754457</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C210" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D210" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E210" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F210" t="n">
-        <v>171.4199</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C211" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D211" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E211" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F211" t="n">
-        <v>2.0609</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C212" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D212" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E212" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F212" t="n">
-        <v>3.561</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C213" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D213" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E213" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F213" t="n">
-        <v>27.7002</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C214" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D214" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E214" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F214" t="n">
-        <v>36.991</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>16100</v>
-      </c>
-      <c r="C215" t="n">
-        <v>16100</v>
-      </c>
-      <c r="D215" t="n">
-        <v>16100</v>
-      </c>
-      <c r="E215" t="n">
-        <v>16100</v>
-      </c>
-      <c r="F215" t="n">
-        <v>4</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-1660.270626754457</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C216" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D216" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E216" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F216" t="n">
-        <v>218.2125</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-1442.058126754457</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C217" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D217" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E217" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F217" t="n">
-        <v>13.63</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-1455.688126754457</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>16130</v>
-      </c>
-      <c r="C218" t="n">
-        <v>16130</v>
-      </c>
-      <c r="D218" t="n">
-        <v>16130</v>
-      </c>
-      <c r="E218" t="n">
-        <v>16130</v>
-      </c>
-      <c r="F218" t="n">
-        <v>2.1709</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-1457.859026754457</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C219" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D219" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E219" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F219" t="n">
-        <v>21.8055</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-1436.053526754457</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>16150</v>
-      </c>
-      <c r="C220" t="n">
-        <v>16150</v>
-      </c>
-      <c r="D220" t="n">
-        <v>16150</v>
-      </c>
-      <c r="E220" t="n">
-        <v>16150</v>
-      </c>
-      <c r="F220" t="n">
-        <v>3</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-1439.053526754457</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C221" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D221" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E221" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F221" t="n">
-        <v>2.9813</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-1436.072226754457</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C222" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D222" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E222" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F222" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-1442.882226754457</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C223" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D223" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E223" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F223" t="n">
-        <v>3.2395</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-1439.642726754457</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C224" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D224" t="n">
-        <v>16160</v>
-      </c>
-      <c r="E224" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F224" t="n">
-        <v>13</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-1452.642726754457</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C225" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D225" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E225" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F225" t="n">
-        <v>50.015</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-1402.627726754457</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>16160</v>
-      </c>
-      <c r="C226" t="n">
-        <v>16160</v>
-      </c>
-      <c r="D226" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E226" t="n">
-        <v>16160</v>
-      </c>
-      <c r="F226" t="n">
-        <v>63.428</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-1466.055726754457</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>16150</v>
-      </c>
-      <c r="C227" t="n">
-        <v>16150</v>
-      </c>
-      <c r="D227" t="n">
-        <v>16150</v>
-      </c>
-      <c r="E227" t="n">
-        <v>16150</v>
-      </c>
-      <c r="F227" t="n">
-        <v>14.7419</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-1480.797626754457</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>16170</v>
-      </c>
-      <c r="C228" t="n">
-        <v>16170</v>
-      </c>
-      <c r="D228" t="n">
-        <v>16170</v>
-      </c>
-      <c r="E228" t="n">
-        <v>16170</v>
-      </c>
-      <c r="F228" t="n">
-        <v>11.31725417439703</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-1469.48037258006</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
-        <v>227</v>
-      </c>
-      <c r="B229" t="n">
-        <v>16120</v>
-      </c>
-      <c r="C229" t="n">
-        <v>16110</v>
-      </c>
-      <c r="D229" t="n">
-        <v>16120</v>
-      </c>
-      <c r="E229" t="n">
-        <v>16110</v>
-      </c>
-      <c r="F229" t="n">
-        <v>41.9972</v>
-      </c>
-      <c r="G229" t="n">
-        <v>-1511.47757258006</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
-        <v>228</v>
-      </c>
-      <c r="B230" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C230" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D230" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E230" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F230" t="n">
-        <v>40</v>
-      </c>
-      <c r="G230" t="n">
-        <v>-1551.47757258006</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
-        <v>229</v>
-      </c>
-      <c r="B231" t="n">
-        <v>16120</v>
-      </c>
-      <c r="C231" t="n">
-        <v>16120</v>
-      </c>
-      <c r="D231" t="n">
-        <v>16120</v>
-      </c>
-      <c r="E231" t="n">
-        <v>16120</v>
-      </c>
-      <c r="F231" t="n">
-        <v>0.1861042183622829</v>
-      </c>
-      <c r="G231" t="n">
-        <v>-1551.291468361698</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
-        <v>230</v>
-      </c>
-      <c r="B232" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C232" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D232" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E232" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F232" t="n">
-        <v>5.5783</v>
-      </c>
-      <c r="G232" t="n">
-        <v>-1556.869768361698</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>231</v>
-      </c>
-      <c r="B233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="D233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="F233" t="n">
-        <v>7.6143</v>
-      </c>
-      <c r="G233" t="n">
-        <v>-1556.869768361698</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B234" t="n">
-        <v>16070</v>
-      </c>
-      <c r="C234" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D234" t="n">
-        <v>16070</v>
-      </c>
-      <c r="E234" t="n">
-        <v>16000</v>
-      </c>
-      <c r="F234" t="n">
-        <v>107</v>
-      </c>
-      <c r="G234" t="n">
-        <v>-1663.869768361698</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8604,10 +8152,14 @@
         <v>-1603.654368361698</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J235" t="n">
+        <v>16070</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8641,10 +8193,14 @@
         <v>-1607.533568361698</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>16010</v>
+      </c>
+      <c r="J236" t="n">
+        <v>16070</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8678,10 +8234,14 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>15990</v>
+      </c>
+      <c r="J237" t="n">
+        <v>16070</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8715,10 +8275,14 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J238" t="n">
+        <v>16070</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,10 +8316,14 @@
         <v>-1672.416368361698</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>16000</v>
+      </c>
+      <c r="J239" t="n">
+        <v>16070</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8767,6 +8335,6 @@
       <c r="M239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest REP.xlsx
+++ b/BackTest/2020-01-23 BackTest REP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -649,10 +649,14 @@
         <v>-636.3090999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15890</v>
+      </c>
+      <c r="J8" t="n">
+        <v>15890</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -685,8 +689,14 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>15890</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -718,8 +728,14 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>15890</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1309,7 +1325,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1441,7 +1457,7 @@
         <v>277.4083893656721</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1490,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1523,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1556,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1589,7 @@
         <v>147.644989365672</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1622,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1655,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1688,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1721,7 @@
         <v>17.01858936567203</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1754,7 @@
         <v>17.01858936567203</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1787,7 @@
         <v>-62.98141063432797</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1820,7 @@
         <v>-63.08141063432797</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1969,7 +1985,7 @@
         <v>-106.0423106343279</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2018,7 @@
         <v>-106.0423106343279</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2051,7 @@
         <v>-125.5423106343279</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2084,7 @@
         <v>-113.403310634328</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2117,7 @@
         <v>-113.403310634328</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2150,7 @@
         <v>-113.403310634328</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2183,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2216,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2249,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2563,7 +2579,7 @@
         <v>-183.7307106343279</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -6127,7 +6143,7 @@
         <v>38.75537324554261</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6176,7 @@
         <v>31.23697324554261</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6209,7 @@
         <v>-925.9553267544575</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6242,7 @@
         <v>-1171.826226754457</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6275,7 @@
         <v>-1748.097926754457</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6308,7 @@
         <v>-1748.097926754457</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -8074,14 +8090,10 @@
         <v>-1556.869768361698</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J233" t="n">
-        <v>16070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
@@ -8116,9 +8128,7 @@
       <c r="I234" t="n">
         <v>16070</v>
       </c>
-      <c r="J234" t="n">
-        <v>16070</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -8157,9 +8167,7 @@
       <c r="I235" t="n">
         <v>16000</v>
       </c>
-      <c r="J235" t="n">
-        <v>16070</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8198,9 +8206,7 @@
       <c r="I236" t="n">
         <v>16010</v>
       </c>
-      <c r="J236" t="n">
-        <v>16070</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8234,14 +8240,10 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>15990</v>
-      </c>
-      <c r="J237" t="n">
-        <v>16070</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8280,9 +8282,7 @@
       <c r="I238" t="n">
         <v>16000</v>
       </c>
-      <c r="J238" t="n">
-        <v>16070</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,9 +8321,7 @@
       <c r="I239" t="n">
         <v>16000</v>
       </c>
-      <c r="J239" t="n">
-        <v>16070</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8335,6 +8333,6 @@
       <c r="M239" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest REP.xlsx
+++ b/BackTest/2020-01-23 BackTest REP.xlsx
@@ -649,14 +649,10 @@
         <v>-636.3090999999998</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15890</v>
-      </c>
-      <c r="J8" t="n">
-        <v>15890</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
@@ -689,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>15890</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -728,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>15890</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -1193,7 +1177,7 @@
         <v>643.213989365672</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1226,7 +1210,7 @@
         <v>621.997289365672</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1325,7 +1309,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1358,7 +1342,7 @@
         <v>637.4366893656721</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1391,7 +1375,7 @@
         <v>511.2036893656721</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1424,7 +1408,7 @@
         <v>564.2036893656721</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1457,7 +1441,7 @@
         <v>277.4083893656721</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1490,7 +1474,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1523,7 +1507,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1556,7 +1540,7 @@
         <v>194.5886893656721</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1589,7 +1573,7 @@
         <v>147.644989365672</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1688,7 +1672,7 @@
         <v>151.274989365672</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1721,7 +1705,7 @@
         <v>17.01858936567203</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1787,7 +1771,7 @@
         <v>-62.98141063432797</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1820,7 +1804,7 @@
         <v>-63.08141063432797</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1853,7 +1837,7 @@
         <v>-67.89681063432798</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1886,7 +1870,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1919,7 +1903,7 @@
         <v>-143.564110634328</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1952,7 +1936,7 @@
         <v>-141.1724106343279</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -2183,7 +2167,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2216,7 +2200,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2249,7 +2233,7 @@
         <v>-106.4944106343279</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -5747,7 +5731,7 @@
         <v>112.2922087686571</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5813,7 +5797,7 @@
         <v>107.4193087686571</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6011,7 +5995,7 @@
         <v>300.8196732455426</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6044,7 +6028,7 @@
         <v>300.8196732455426</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6077,7 +6061,7 @@
         <v>300.1591732455426</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6110,7 +6094,7 @@
         <v>300.1591732455426</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6143,7 +6127,7 @@
         <v>38.75537324554261</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6176,7 +6160,7 @@
         <v>31.23697324554261</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6209,7 +6193,7 @@
         <v>-925.9553267544575</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -8024,10 +8008,14 @@
         <v>-1551.291468361698</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J231" t="n">
+        <v>16070</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
@@ -8057,11 +8045,19 @@
         <v>-1556.869768361698</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>16120</v>
+      </c>
+      <c r="J232" t="n">
+        <v>16070</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8090,11 +8086,19 @@
         <v>-1556.869768361698</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="J233" t="n">
+        <v>16070</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8128,7 +8132,9 @@
       <c r="I234" t="n">
         <v>16070</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>16070</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -8167,7 +8173,9 @@
       <c r="I235" t="n">
         <v>16000</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>16070</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8206,7 +8214,9 @@
       <c r="I236" t="n">
         <v>16010</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>16070</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8240,10 +8250,14 @@
         <v>-1578.962068361698</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>15990</v>
+      </c>
+      <c r="J237" t="n">
+        <v>16070</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8282,7 +8296,9 @@
       <c r="I238" t="n">
         <v>16000</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>16070</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8321,7 +8337,9 @@
       <c r="I239" t="n">
         <v>16000</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>16070</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-23 BackTest REP.xlsx
+++ b/BackTest/2020-01-23 BackTest REP.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M239"/>
+  <dimension ref="A1:L239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>80.5538</v>
       </c>
       <c r="G2" t="n">
-        <v>-516.2782999999998</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>82.6679</v>
       </c>
       <c r="G3" t="n">
-        <v>-516.2782999999998</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>42.1594</v>
       </c>
       <c r="G4" t="n">
-        <v>-516.2782999999998</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,19 @@
         <v>32.5407</v>
       </c>
       <c r="G5" t="n">
-        <v>-516.2782999999998</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
+        <v>15810</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15810</v>
+      </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +567,23 @@
         <v>121.5408</v>
       </c>
       <c r="G6" t="n">
-        <v>-637.8190999999998</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+        <v>15810</v>
+      </c>
+      <c r="I6" t="n">
+        <v>15810</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +605,23 @@
         <v>1.51</v>
       </c>
       <c r="G7" t="n">
-        <v>-636.3090999999998</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>15800</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15810</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +643,19 @@
         <v>0.0052</v>
       </c>
       <c r="G8" t="n">
-        <v>-636.3090999999998</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>15890</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15890</v>
+      </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +677,23 @@
         <v>8.3085</v>
       </c>
       <c r="G9" t="n">
-        <v>-628.0005999999998</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>15890</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15890</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +715,23 @@
         <v>14.6067</v>
       </c>
       <c r="G10" t="n">
-        <v>-642.6072999999999</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>15960</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15890</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +753,19 @@
         <v>31.11818936567164</v>
       </c>
       <c r="G11" t="n">
-        <v>-611.4891106343282</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>15950</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15950</v>
+      </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +787,21 @@
         <v>61.8033</v>
       </c>
       <c r="G12" t="n">
-        <v>-549.6858106343282</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +823,21 @@
         <v>111.717</v>
       </c>
       <c r="G13" t="n">
-        <v>-437.9688106343282</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>15950</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +859,15 @@
         <v>11.3441</v>
       </c>
       <c r="G14" t="n">
-        <v>-426.6247106343282</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +889,15 @@
         <v>1.41</v>
       </c>
       <c r="G15" t="n">
-        <v>-426.6247106343282</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +919,15 @@
         <v>18.17</v>
       </c>
       <c r="G16" t="n">
-        <v>-426.6247106343282</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +949,15 @@
         <v>6.2819</v>
       </c>
       <c r="G17" t="n">
-        <v>-426.6247106343282</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +979,15 @@
         <v>11.3441</v>
       </c>
       <c r="G18" t="n">
-        <v>-437.9688106343282</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1009,15 @@
         <v>200</v>
       </c>
       <c r="G19" t="n">
-        <v>-237.9688106343282</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1039,15 @@
         <v>3.426</v>
       </c>
       <c r="G20" t="n">
-        <v>-241.3948106343282</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1069,15 @@
         <v>103.5</v>
       </c>
       <c r="G21" t="n">
-        <v>-241.3948106343282</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1099,15 @@
         <v>884.1561</v>
       </c>
       <c r="G22" t="n">
-        <v>642.7612893656719</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1129,15 @@
         <v>0.4527</v>
       </c>
       <c r="G23" t="n">
-        <v>643.213989365672</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1159,15 @@
         <v>46</v>
       </c>
       <c r="G24" t="n">
-        <v>643.213989365672</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1189,15 @@
         <v>21.2167</v>
       </c>
       <c r="G25" t="n">
-        <v>621.997289365672</v>
-      </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1219,15 @@
         <v>1.9794</v>
       </c>
       <c r="G26" t="n">
-        <v>623.9766893656721</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1249,15 @@
         <v>13.46</v>
       </c>
       <c r="G27" t="n">
-        <v>637.4366893656721</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1279,15 @@
         <v>90.6831</v>
       </c>
       <c r="G28" t="n">
-        <v>637.4366893656721</v>
-      </c>
-      <c r="H28" t="n">
         <v>2</v>
       </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1309,15 @@
         <v>58</v>
       </c>
       <c r="G29" t="n">
-        <v>637.4366893656721</v>
-      </c>
-      <c r="H29" t="n">
         <v>2</v>
       </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1339,15 @@
         <v>126.233</v>
       </c>
       <c r="G30" t="n">
-        <v>511.2036893656721</v>
-      </c>
-      <c r="H30" t="n">
         <v>2</v>
       </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1369,15 @@
         <v>53</v>
       </c>
       <c r="G31" t="n">
-        <v>564.2036893656721</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1399,15 @@
         <v>286.7953</v>
       </c>
       <c r="G32" t="n">
-        <v>277.4083893656721</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1429,15 @@
         <v>82.8197</v>
       </c>
       <c r="G33" t="n">
-        <v>194.5886893656721</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1459,15 @@
         <v>1.9</v>
       </c>
       <c r="G34" t="n">
-        <v>194.5886893656721</v>
-      </c>
-      <c r="H34" t="n">
         <v>2</v>
       </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1489,15 @@
         <v>121.1366070336391</v>
       </c>
       <c r="G35" t="n">
-        <v>194.5886893656721</v>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1519,15 @@
         <v>46.9437</v>
       </c>
       <c r="G36" t="n">
-        <v>147.644989365672</v>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1549,15 @@
         <v>3.63</v>
       </c>
       <c r="G37" t="n">
-        <v>151.274989365672</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1579,15 @@
         <v>3.75</v>
       </c>
       <c r="G38" t="n">
-        <v>151.274989365672</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1609,15 @@
         <v>6.9089</v>
       </c>
       <c r="G39" t="n">
-        <v>151.274989365672</v>
-      </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1639,15 @@
         <v>134.2564</v>
       </c>
       <c r="G40" t="n">
-        <v>17.01858936567203</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1669,15 @@
         <v>115.2214</v>
       </c>
       <c r="G41" t="n">
-        <v>17.01858936567203</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1699,15 @@
         <v>80</v>
       </c>
       <c r="G42" t="n">
-        <v>-62.98141063432797</v>
-      </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1729,15 @@
         <v>0.1</v>
       </c>
       <c r="G43" t="n">
-        <v>-63.08141063432797</v>
-      </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1759,15 @@
         <v>4.8154</v>
       </c>
       <c r="G44" t="n">
-        <v>-67.89681063432798</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1789,15 @@
         <v>75.6673</v>
       </c>
       <c r="G45" t="n">
-        <v>-143.564110634328</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1819,15 @@
         <v>0.0001</v>
       </c>
       <c r="G46" t="n">
-        <v>-143.564110634328</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1849,15 @@
         <v>2.3917</v>
       </c>
       <c r="G47" t="n">
-        <v>-141.1724106343279</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1879,15 @@
         <v>35.1301</v>
       </c>
       <c r="G48" t="n">
-        <v>-106.0423106343279</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1909,15 @@
         <v>12.5178</v>
       </c>
       <c r="G49" t="n">
-        <v>-106.0423106343279</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1939,15 @@
         <v>19.5</v>
       </c>
       <c r="G50" t="n">
-        <v>-125.5423106343279</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1969,15 @@
         <v>12.139</v>
       </c>
       <c r="G51" t="n">
-        <v>-113.403310634328</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1999,15 @@
         <v>2.3185</v>
       </c>
       <c r="G52" t="n">
-        <v>-113.403310634328</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2029,15 @@
         <v>1.4717</v>
       </c>
       <c r="G53" t="n">
-        <v>-113.403310634328</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2059,15 @@
         <v>6.9089</v>
       </c>
       <c r="G54" t="n">
-        <v>-106.4944106343279</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2089,15 @@
         <v>10</v>
       </c>
       <c r="G55" t="n">
-        <v>-106.4944106343279</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2119,15 @@
         <v>20</v>
       </c>
       <c r="G56" t="n">
-        <v>-106.4944106343279</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2149,15 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>-96.49441063432795</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2179,15 @@
         <v>26.9116</v>
       </c>
       <c r="G58" t="n">
-        <v>-123.4060106343279</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2209,15 @@
         <v>63</v>
       </c>
       <c r="G59" t="n">
-        <v>-60.40601063432794</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2239,15 @@
         <v>52.0157</v>
       </c>
       <c r="G60" t="n">
-        <v>-112.421710634328</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2269,15 @@
         <v>56.0797</v>
       </c>
       <c r="G61" t="n">
-        <v>-56.34201063432795</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2299,15 @@
         <v>25.9548</v>
       </c>
       <c r="G62" t="n">
-        <v>-56.34201063432795</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2329,15 @@
         <v>50</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.342010634327949</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2359,15 @@
         <v>158.2108</v>
       </c>
       <c r="G64" t="n">
-        <v>-164.552810634328</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2389,15 @@
         <v>11.9402</v>
       </c>
       <c r="G65" t="n">
-        <v>-152.612610634328</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2419,15 @@
         <v>31.1181</v>
       </c>
       <c r="G66" t="n">
-        <v>-183.7307106343279</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2449,15 @@
         <v>326.1563</v>
       </c>
       <c r="G67" t="n">
-        <v>-509.8870106343279</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2479,15 @@
         <v>1.886</v>
       </c>
       <c r="G68" t="n">
-        <v>-508.0010106343279</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2509,15 @@
         <v>15.59</v>
       </c>
       <c r="G69" t="n">
-        <v>-508.0010106343279</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2539,15 @@
         <v>0.08</v>
       </c>
       <c r="G70" t="n">
-        <v>-507.9210106343279</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2569,15 @@
         <v>4.38</v>
       </c>
       <c r="G71" t="n">
-        <v>-512.3010106343279</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2599,15 @@
         <v>4.4215</v>
       </c>
       <c r="G72" t="n">
-        <v>-507.8795106343279</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2629,15 @@
         <v>79.0891</v>
       </c>
       <c r="G73" t="n">
-        <v>-586.9686106343279</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2659,15 @@
         <v>19.2421</v>
       </c>
       <c r="G74" t="n">
-        <v>-606.2107106343279</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2689,15 @@
         <v>48.385</v>
       </c>
       <c r="G75" t="n">
-        <v>-654.5957106343279</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2719,15 @@
         <v>9.202999999999999</v>
       </c>
       <c r="G76" t="n">
-        <v>-654.5957106343279</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2749,15 @@
         <v>30</v>
       </c>
       <c r="G77" t="n">
-        <v>-624.5957106343279</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2779,15 @@
         <v>5.5127</v>
       </c>
       <c r="G78" t="n">
-        <v>-630.1084106343279</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2809,15 @@
         <v>100</v>
       </c>
       <c r="G79" t="n">
-        <v>-530.1084106343279</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2839,15 @@
         <v>3.53</v>
       </c>
       <c r="G80" t="n">
-        <v>-533.6384106343279</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2869,15 @@
         <v>3.53</v>
       </c>
       <c r="G81" t="n">
-        <v>-533.6384106343279</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2899,15 @@
         <v>1.9788</v>
       </c>
       <c r="G82" t="n">
-        <v>-533.6384106343279</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2929,15 @@
         <v>81.1092</v>
       </c>
       <c r="G83" t="n">
-        <v>-614.7476106343279</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2959,15 @@
         <v>3.1411</v>
       </c>
       <c r="G84" t="n">
-        <v>-614.7476106343279</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2989,15 @@
         <v>25.7356</v>
       </c>
       <c r="G85" t="n">
-        <v>-614.7476106343279</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3019,15 @@
         <v>3.703</v>
       </c>
       <c r="G86" t="n">
-        <v>-614.7476106343279</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3049,15 @@
         <v>19.9</v>
       </c>
       <c r="G87" t="n">
-        <v>-594.8476106343279</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3079,15 @@
         <v>14.9532</v>
       </c>
       <c r="G88" t="n">
-        <v>-579.8944106343279</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3109,15 @@
         <v>0.0001</v>
       </c>
       <c r="G89" t="n">
-        <v>-579.8944106343279</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3139,15 @@
         <v>8.9094</v>
       </c>
       <c r="G90" t="n">
-        <v>-588.8038106343279</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3169,15 @@
         <v>4.5274</v>
       </c>
       <c r="G91" t="n">
-        <v>-588.8038106343279</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3199,15 @@
         <v>205.0276</v>
       </c>
       <c r="G92" t="n">
-        <v>-588.8038106343279</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3229,15 @@
         <v>28.1059</v>
       </c>
       <c r="G93" t="n">
-        <v>-588.8038106343279</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3259,15 @@
         <v>20</v>
       </c>
       <c r="G94" t="n">
-        <v>-608.8038106343279</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3289,15 @@
         <v>6.5</v>
       </c>
       <c r="G95" t="n">
-        <v>-608.8038106343279</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3319,15 @@
         <v>50.1398</v>
       </c>
       <c r="G96" t="n">
-        <v>-608.8038106343279</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3349,15 @@
         <v>66.2248</v>
       </c>
       <c r="G97" t="n">
-        <v>-608.8038106343279</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3379,15 @@
         <v>264.8398</v>
       </c>
       <c r="G98" t="n">
-        <v>-608.8038106343279</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3409,15 @@
         <v>25.4397</v>
       </c>
       <c r="G99" t="n">
-        <v>-608.8038106343279</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3439,15 @@
         <v>24.2432</v>
       </c>
       <c r="G100" t="n">
-        <v>-608.8038106343279</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3469,15 @@
         <v>154.8585</v>
       </c>
       <c r="G101" t="n">
-        <v>-453.9453106343279</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3499,15 @@
         <v>106.5453</v>
       </c>
       <c r="G102" t="n">
-        <v>-347.4000106343279</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3529,15 @@
         <v>237.3985</v>
       </c>
       <c r="G103" t="n">
-        <v>-347.4000106343279</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3559,15 @@
         <v>67.7496</v>
       </c>
       <c r="G104" t="n">
-        <v>-279.6504106343279</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3589,15 @@
         <v>52.3394</v>
       </c>
       <c r="G105" t="n">
-        <v>-331.9898106343279</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3619,15 @@
         <v>2.1402</v>
       </c>
       <c r="G106" t="n">
-        <v>-329.8496106343279</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3649,15 @@
         <v>15.5344</v>
       </c>
       <c r="G107" t="n">
-        <v>-314.3152106343279</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3679,15 @@
         <v>42.0999</v>
       </c>
       <c r="G108" t="n">
-        <v>-356.4151106343279</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3709,15 @@
         <v>0.08</v>
       </c>
       <c r="G109" t="n">
-        <v>-356.3351106343279</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3739,15 @@
         <v>76.1361</v>
       </c>
       <c r="G110" t="n">
-        <v>-280.1990106343279</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3769,15 @@
         <v>66.268</v>
       </c>
       <c r="G111" t="n">
-        <v>-280.1990106343279</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3799,15 @@
         <v>30</v>
       </c>
       <c r="G112" t="n">
-        <v>-280.1990106343279</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3829,15 @@
         <v>171.0485</v>
       </c>
       <c r="G113" t="n">
-        <v>-280.1990106343279</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3859,15 @@
         <v>62.0137</v>
       </c>
       <c r="G114" t="n">
-        <v>-342.2127106343279</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3889,15 @@
         <v>115.4517</v>
       </c>
       <c r="G115" t="n">
-        <v>-457.6644106343279</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3919,15 @@
         <v>249.4554</v>
       </c>
       <c r="G116" t="n">
-        <v>-707.1198106343279</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3949,15 @@
         <v>13</v>
       </c>
       <c r="G117" t="n">
-        <v>-694.1198106343279</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3979,15 @@
         <v>5.432</v>
       </c>
       <c r="G118" t="n">
-        <v>-688.6878106343279</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4009,15 @@
         <v>2.74</v>
       </c>
       <c r="G119" t="n">
-        <v>-691.4278106343279</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4039,15 @@
         <v>16.902</v>
       </c>
       <c r="G120" t="n">
-        <v>-691.4278106343279</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4069,15 @@
         <v>3.604</v>
       </c>
       <c r="G121" t="n">
-        <v>-691.4278106343279</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4099,15 @@
         <v>10</v>
       </c>
       <c r="G122" t="n">
-        <v>-691.4278106343279</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4129,15 @@
         <v>48.5</v>
       </c>
       <c r="G123" t="n">
-        <v>-691.4278106343279</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4159,15 @@
         <v>10.4026</v>
       </c>
       <c r="G124" t="n">
-        <v>-681.0252106343279</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4189,15 @@
         <v>2.8281</v>
       </c>
       <c r="G125" t="n">
-        <v>-681.0252106343279</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4219,15 @@
         <v>13.842</v>
       </c>
       <c r="G126" t="n">
-        <v>-681.0252106343279</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4249,15 @@
         <v>2.4064</v>
       </c>
       <c r="G127" t="n">
-        <v>-678.6188106343279</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4279,15 @@
         <v>24.04648059701493</v>
       </c>
       <c r="G128" t="n">
-        <v>-702.6652912313428</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4309,15 @@
         <v>28.519</v>
       </c>
       <c r="G129" t="n">
-        <v>-702.6652912313428</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4339,15 @@
         <v>17.266</v>
       </c>
       <c r="G130" t="n">
-        <v>-702.6652912313428</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4369,15 @@
         <v>3.0555</v>
       </c>
       <c r="G131" t="n">
-        <v>-702.6652912313428</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4399,15 @@
         <v>13.448</v>
       </c>
       <c r="G132" t="n">
-        <v>-702.6652912313428</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4429,15 @@
         <v>6.562</v>
       </c>
       <c r="G133" t="n">
-        <v>-709.2272912313429</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4459,15 @@
         <v>3.6339</v>
       </c>
       <c r="G134" t="n">
-        <v>-709.2272912313429</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4489,15 @@
         <v>7.264</v>
       </c>
       <c r="G135" t="n">
-        <v>-709.2272912313429</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4519,15 @@
         <v>0.1226509023024269</v>
       </c>
       <c r="G136" t="n">
-        <v>-709.1046403290404</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4549,15 @@
         <v>0.1675</v>
       </c>
       <c r="G137" t="n">
-        <v>-709.2721403290404</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4579,15 @@
         <v>135.6234</v>
       </c>
       <c r="G138" t="n">
-        <v>-844.8955403290404</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4609,15 @@
         <v>3</v>
       </c>
       <c r="G139" t="n">
-        <v>-841.8955403290404</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4639,15 @@
         <v>149.6075490976976</v>
       </c>
       <c r="G140" t="n">
-        <v>-692.2879912313427</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4669,15 @@
         <v>74.7308</v>
       </c>
       <c r="G141" t="n">
-        <v>-767.0187912313428</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4699,15 @@
         <v>5.6673</v>
       </c>
       <c r="G142" t="n">
-        <v>-761.3514912313428</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4729,15 @@
         <v>121.4066</v>
       </c>
       <c r="G143" t="n">
-        <v>-882.7580912313429</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4759,15 @@
         <v>9.109999999999999</v>
       </c>
       <c r="G144" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4789,15 @@
         <v>5.2352</v>
       </c>
       <c r="G145" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4819,15 @@
         <v>4.55</v>
       </c>
       <c r="G146" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4849,15 @@
         <v>13.1854</v>
       </c>
       <c r="G147" t="n">
-        <v>-873.6480912313428</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4879,15 @@
         <v>3</v>
       </c>
       <c r="G148" t="n">
-        <v>-870.6480912313428</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4909,15 @@
         <v>66.7059</v>
       </c>
       <c r="G149" t="n">
-        <v>-937.3539912313429</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4939,15 @@
         <v>910.5780999999999</v>
       </c>
       <c r="G150" t="n">
-        <v>-937.3539912313429</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4969,15 @@
         <v>508.0259</v>
       </c>
       <c r="G151" t="n">
-        <v>-429.3280912313429</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4999,15 @@
         <v>1</v>
       </c>
       <c r="G152" t="n">
-        <v>-428.3280912313429</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +5029,15 @@
         <v>6.9747</v>
       </c>
       <c r="G153" t="n">
-        <v>-421.3533912313429</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5059,15 @@
         <v>301.262</v>
       </c>
       <c r="G154" t="n">
-        <v>-120.0913912313429</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5089,15 @@
         <v>110.7311</v>
       </c>
       <c r="G155" t="n">
-        <v>-9.360291231342927</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5119,15 @@
         <v>14.21</v>
       </c>
       <c r="G156" t="n">
-        <v>-23.57029123134293</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5149,15 @@
         <v>204.2924</v>
       </c>
       <c r="G157" t="n">
-        <v>-23.57029123134293</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5179,15 @@
         <v>4.7554</v>
       </c>
       <c r="G158" t="n">
-        <v>-18.81489123134293</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5209,15 @@
         <v>295.868</v>
       </c>
       <c r="G159" t="n">
-        <v>277.0531087686571</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5239,15 @@
         <v>66.6345</v>
       </c>
       <c r="G160" t="n">
-        <v>277.0531087686571</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5269,15 @@
         <v>164.1233</v>
       </c>
       <c r="G161" t="n">
-        <v>112.9298087686571</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5299,15 @@
         <v>0.6375999999999999</v>
       </c>
       <c r="G162" t="n">
-        <v>112.2922087686571</v>
-      </c>
-      <c r="H162" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5329,15 @@
         <v>59.7417</v>
       </c>
       <c r="G163" t="n">
-        <v>112.2922087686571</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5359,15 @@
         <v>4.8729</v>
       </c>
       <c r="G164" t="n">
-        <v>107.4193087686571</v>
-      </c>
-      <c r="H164" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5389,15 @@
         <v>0.1144</v>
       </c>
       <c r="G165" t="n">
-        <v>107.4193087686571</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5419,15 @@
         <v>7.1829</v>
       </c>
       <c r="G166" t="n">
-        <v>100.2364087686571</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5449,15 @@
         <v>223.6150644768856</v>
       </c>
       <c r="G167" t="n">
-        <v>323.8514732455426</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5479,15 @@
         <v>101.8811</v>
       </c>
       <c r="G168" t="n">
-        <v>221.9703732455426</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5509,15 @@
         <v>78.8493</v>
       </c>
       <c r="G169" t="n">
-        <v>300.8196732455426</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5539,15 @@
         <v>6.1506</v>
       </c>
       <c r="G170" t="n">
-        <v>300.8196732455426</v>
-      </c>
-      <c r="H170" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5569,15 @@
         <v>0.0001</v>
       </c>
       <c r="G171" t="n">
-        <v>300.8196732455426</v>
-      </c>
-      <c r="H171" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5599,15 @@
         <v>0.6605</v>
       </c>
       <c r="G172" t="n">
-        <v>300.1591732455426</v>
-      </c>
-      <c r="H172" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5629,15 @@
         <v>2.5267</v>
       </c>
       <c r="G173" t="n">
-        <v>300.1591732455426</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5659,15 @@
         <v>261.4038</v>
       </c>
       <c r="G174" t="n">
-        <v>38.75537324554261</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5689,15 @@
         <v>7.5184</v>
       </c>
       <c r="G175" t="n">
-        <v>31.23697324554261</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5719,15 @@
         <v>957.1923</v>
       </c>
       <c r="G176" t="n">
-        <v>-925.9553267544575</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5749,15 @@
         <v>245.8709</v>
       </c>
       <c r="G177" t="n">
-        <v>-1171.826226754457</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5779,15 @@
         <v>576.2717</v>
       </c>
       <c r="G178" t="n">
-        <v>-1748.097926754457</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5809,15 @@
         <v>1.5</v>
       </c>
       <c r="G179" t="n">
-        <v>-1748.097926754457</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5839,15 @@
         <v>4.2682</v>
       </c>
       <c r="G180" t="n">
-        <v>-1743.829726754457</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5869,15 @@
         <v>163.604</v>
       </c>
       <c r="G181" t="n">
-        <v>-1907.433726754457</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5899,15 @@
         <v>382.29</v>
       </c>
       <c r="G182" t="n">
-        <v>-1907.433726754457</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5929,15 @@
         <v>237.2109</v>
       </c>
       <c r="G183" t="n">
-        <v>-1670.222826754457</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5959,15 @@
         <v>299.6543</v>
       </c>
       <c r="G184" t="n">
-        <v>-1969.877126754457</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5989,15 @@
         <v>236.9397</v>
       </c>
       <c r="G185" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6019,15 @@
         <v>15</v>
       </c>
       <c r="G186" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6049,15 @@
         <v>20</v>
       </c>
       <c r="G187" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6079,15 @@
         <v>306.9596</v>
       </c>
       <c r="G188" t="n">
-        <v>-1732.937426754457</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6109,15 @@
         <v>50</v>
       </c>
       <c r="G189" t="n">
-        <v>-1682.937426754457</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6139,15 @@
         <v>29.9999</v>
       </c>
       <c r="G190" t="n">
-        <v>-1652.937526754457</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6169,15 @@
         <v>46.7035</v>
       </c>
       <c r="G191" t="n">
-        <v>-1606.234026754457</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6199,15 @@
         <v>21.2282</v>
       </c>
       <c r="G192" t="n">
-        <v>-1627.462226754457</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6229,15 @@
         <v>3.53</v>
       </c>
       <c r="G193" t="n">
-        <v>-1627.462226754457</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6259,15 @@
         <v>23.2377</v>
       </c>
       <c r="G194" t="n">
-        <v>-1650.699926754457</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6289,15 @@
         <v>350.1508</v>
       </c>
       <c r="G195" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6319,15 @@
         <v>46.2288</v>
       </c>
       <c r="G196" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6349,15 @@
         <v>2.3429</v>
       </c>
       <c r="G197" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6379,15 @@
         <v>0.9475</v>
       </c>
       <c r="G198" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6409,15 @@
         <v>125</v>
       </c>
       <c r="G199" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6439,15 @@
         <v>9.3803</v>
       </c>
       <c r="G200" t="n">
-        <v>-2000.850726754457</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6469,15 @@
         <v>10.0988</v>
       </c>
       <c r="G201" t="n">
-        <v>-1990.751926754457</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6499,15 @@
         <v>4.8205</v>
       </c>
       <c r="G202" t="n">
-        <v>-1990.751926754457</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6529,15 @@
         <v>10.1045</v>
       </c>
       <c r="G203" t="n">
-        <v>-1980.647426754457</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6559,15 @@
         <v>120</v>
       </c>
       <c r="G204" t="n">
-        <v>-2100.647426754457</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6589,15 @@
         <v>109.5</v>
       </c>
       <c r="G205" t="n">
-        <v>-1991.147426754457</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6619,15 @@
         <v>29.2342</v>
       </c>
       <c r="G206" t="n">
-        <v>-2020.381626754457</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6649,15 @@
         <v>56.8965</v>
       </c>
       <c r="G207" t="n">
-        <v>-2077.278126754457</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6679,15 @@
         <v>249.5069</v>
       </c>
       <c r="G208" t="n">
-        <v>-1827.771226754457</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6709,15 @@
         <v>0.08069999999999999</v>
       </c>
       <c r="G209" t="n">
-        <v>-1827.690526754457</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6739,15 @@
         <v>171.4199</v>
       </c>
       <c r="G210" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6769,15 @@
         <v>2.0609</v>
       </c>
       <c r="G211" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6799,15 @@
         <v>3.561</v>
       </c>
       <c r="G212" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6829,15 @@
         <v>27.7002</v>
       </c>
       <c r="G213" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6859,15 @@
         <v>36.991</v>
       </c>
       <c r="G214" t="n">
-        <v>-1656.270626754457</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6889,15 @@
         <v>4</v>
       </c>
       <c r="G215" t="n">
-        <v>-1660.270626754457</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6919,15 @@
         <v>218.2125</v>
       </c>
       <c r="G216" t="n">
-        <v>-1442.058126754457</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6949,15 @@
         <v>13.63</v>
       </c>
       <c r="G217" t="n">
-        <v>-1455.688126754457</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6979,15 @@
         <v>2.1709</v>
       </c>
       <c r="G218" t="n">
-        <v>-1457.859026754457</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7009,15 @@
         <v>21.8055</v>
       </c>
       <c r="G219" t="n">
-        <v>-1436.053526754457</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7039,15 @@
         <v>3</v>
       </c>
       <c r="G220" t="n">
-        <v>-1439.053526754457</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7069,15 @@
         <v>2.9813</v>
       </c>
       <c r="G221" t="n">
-        <v>-1436.072226754457</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7099,15 @@
         <v>6.81</v>
       </c>
       <c r="G222" t="n">
-        <v>-1442.882226754457</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7129,15 @@
         <v>3.2395</v>
       </c>
       <c r="G223" t="n">
-        <v>-1439.642726754457</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7159,15 @@
         <v>13</v>
       </c>
       <c r="G224" t="n">
-        <v>-1452.642726754457</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7189,15 @@
         <v>50.015</v>
       </c>
       <c r="G225" t="n">
-        <v>-1402.627726754457</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7219,15 @@
         <v>63.428</v>
       </c>
       <c r="G226" t="n">
-        <v>-1466.055726754457</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7249,15 @@
         <v>14.7419</v>
       </c>
       <c r="G227" t="n">
-        <v>-1480.797626754457</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7279,15 @@
         <v>11.31725417439703</v>
       </c>
       <c r="G228" t="n">
-        <v>-1469.48037258006</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7309,15 @@
         <v>41.9972</v>
       </c>
       <c r="G229" t="n">
-        <v>-1511.47757258006</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7339,15 @@
         <v>40</v>
       </c>
       <c r="G230" t="n">
-        <v>-1551.47757258006</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,22 +7369,15 @@
         <v>0.1861042183622829</v>
       </c>
       <c r="G231" t="n">
-        <v>-1551.291468361698</v>
-      </c>
-      <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J231" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8042,26 +7399,15 @@
         <v>5.5783</v>
       </c>
       <c r="G232" t="n">
-        <v>-1556.869768361698</v>
-      </c>
-      <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>16120</v>
-      </c>
-      <c r="J232" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8083,26 +7429,15 @@
         <v>7.6143</v>
       </c>
       <c r="G233" t="n">
-        <v>-1556.869768361698</v>
-      </c>
-      <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J233" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8124,26 +7459,15 @@
         <v>107</v>
       </c>
       <c r="G234" t="n">
-        <v>-1663.869768361698</v>
-      </c>
-      <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>16070</v>
-      </c>
-      <c r="J234" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8165,26 +7489,15 @@
         <v>60.2154</v>
       </c>
       <c r="G235" t="n">
-        <v>-1603.654368361698</v>
-      </c>
-      <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J235" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8206,26 +7519,15 @@
         <v>3.8792</v>
       </c>
       <c r="G236" t="n">
-        <v>-1607.533568361698</v>
-      </c>
-      <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>16010</v>
-      </c>
-      <c r="J236" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8247,26 +7549,15 @@
         <v>28.5715</v>
       </c>
       <c r="G237" t="n">
-        <v>-1578.962068361698</v>
-      </c>
-      <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>15990</v>
-      </c>
-      <c r="J237" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8288,26 +7579,15 @@
         <v>8.728400000000001</v>
       </c>
       <c r="G238" t="n">
-        <v>-1578.962068361698</v>
-      </c>
-      <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J238" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8329,26 +7609,15 @@
         <v>93.4543</v>
       </c>
       <c r="G239" t="n">
-        <v>-1672.416368361698</v>
-      </c>
-      <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>16000</v>
-      </c>
-      <c r="J239" t="n">
-        <v>16070</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
